--- a/project/main/xlsx_files/course_invoice.xlsx
+++ b/project/main/xlsx_files/course_invoice.xlsx
@@ -9,126 +9,126 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
+    <definedName name="data69">#REF!</definedName>
+    <definedName name="qzqzqz16">#REF!</definedName>
+    <definedName name="qzqzqz19">#REF!</definedName>
+    <definedName name="data7">#REF!</definedName>
+    <definedName name="data67">#REF!</definedName>
+    <definedName name="qzqzqz12">#REF!</definedName>
+    <definedName name="qzqzqz26">#REF!</definedName>
+    <definedName name="data59">#REF!</definedName>
+    <definedName name="qzqzqz30">#REF!</definedName>
+    <definedName name="data5">#REF!</definedName>
+    <definedName name="data53">#REF!</definedName>
+    <definedName name="data29">#REF!</definedName>
+    <definedName name="data37">#REF!</definedName>
+    <definedName name="data23">#REF!</definedName>
+    <definedName name="data15">#REF!</definedName>
+    <definedName name="data65">#REF!</definedName>
+    <definedName name="button_area_1">#REF!</definedName>
+    <definedName name="qzqzqz14">#REF!</definedName>
+    <definedName name="_tax3">#REF!</definedName>
+    <definedName name="data58">#REF!</definedName>
+    <definedName name="qzqzqz10">#REF!</definedName>
+    <definedName name="data41">#REF!</definedName>
+    <definedName name="data47">#REF!</definedName>
+    <definedName name="data38">#REF!</definedName>
+    <definedName name="data14">#REF!</definedName>
+    <definedName name="data21">#REF!</definedName>
+    <definedName name="data68">#REF!</definedName>
+    <definedName name="NO">#REF!</definedName>
+    <definedName name="data12">#REF!</definedName>
+    <definedName name="data20">#REF!</definedName>
+    <definedName name="qzqzqz21">#REF!</definedName>
+    <definedName name="qzqzqz17">#REF!</definedName>
+    <definedName name="data24">#REF!</definedName>
+    <definedName name="data3">#REF!</definedName>
+    <definedName name="data48">#REF!</definedName>
+    <definedName name="_tax2">#REF!</definedName>
+    <definedName name="data42">#REF!</definedName>
+    <definedName name="qzqzqz25">#REF!</definedName>
+    <definedName name="data50">#REF!</definedName>
+    <definedName name="_tax1">#REF!</definedName>
+    <definedName name="data6">#REF!</definedName>
+    <definedName name="qzqzqz11">#REF!</definedName>
+    <definedName name="data11">#REF!</definedName>
+    <definedName name="qzqzqz18">#REF!</definedName>
+    <definedName name="boxes">#REF!</definedName>
+    <definedName name="qzqzqz27">#REF!</definedName>
+    <definedName name="qzqzqz28">#REF!</definedName>
+    <definedName name="TOT">#REF!</definedName>
+    <definedName name="qzqzqz6">#REF!</definedName>
+    <definedName name="data49">#REF!</definedName>
+    <definedName name="qzqzqz29">#REF!</definedName>
+    <definedName name="data44">#REF!</definedName>
+    <definedName name="qzqzqz9">#REF!</definedName>
+    <definedName name="CCT">#REF!</definedName>
+    <definedName name="qzqzqz8">#REF!</definedName>
+    <definedName name="data62">#REF!</definedName>
     <definedName name="data34">#REF!</definedName>
+    <definedName name="data64">#REF!</definedName>
     <definedName name="data43">#REF!</definedName>
+    <definedName name="qzqzqz15">#REF!</definedName>
+    <definedName name="qzqzqz13">#REF!</definedName>
+    <definedName name="data8">#REF!</definedName>
+    <definedName name="data17">#REF!</definedName>
+    <definedName name="qzqzqz23">#REF!</definedName>
+    <definedName name="data9">#REF!</definedName>
+    <definedName name="data4">#REF!</definedName>
+    <definedName name="data10">#REF!</definedName>
+    <definedName name="data30">#REF!</definedName>
+    <definedName name="qzqzqz22">#REF!</definedName>
+    <definedName name="data18">#REF!</definedName>
+    <definedName name="data26">#REF!</definedName>
+    <definedName name="qzqzqz20">#REF!</definedName>
+    <definedName name="data57">#REF!</definedName>
+    <definedName name="data45">#REF!</definedName>
+    <definedName name="qzqzqz31">#REF!</definedName>
+    <definedName name="data22">#REF!</definedName>
+    <definedName name="data40">#REF!</definedName>
+    <definedName name="data19">#REF!</definedName>
+    <definedName name="data36">#REF!</definedName>
+    <definedName name="data25">#REF!</definedName>
+    <definedName name="data55">#REF!</definedName>
+    <definedName name="data63">#REF!</definedName>
     <definedName name="data33">#REF!</definedName>
-    <definedName name="qzqzqz20">#REF!</definedName>
-    <definedName name="data10">#REF!</definedName>
-    <definedName name="data53">#REF!</definedName>
-    <definedName name="data25">#REF!</definedName>
-    <definedName name="qzqzqz22">#REF!</definedName>
-    <definedName name="data4">#REF!</definedName>
+    <definedName name="data27">#REF!</definedName>
+    <definedName name="data39">#REF!</definedName>
+    <definedName name="data2">#REF!</definedName>
+    <definedName name="data66">#REF!</definedName>
+    <definedName name="data54">#REF!</definedName>
+    <definedName name="data28">#REF!</definedName>
+    <definedName name="data61">#REF!</definedName>
+    <definedName name="data56">#REF!</definedName>
+    <definedName name="data31">#REF!</definedName>
+    <definedName name="qzqzqz7">#REF!</definedName>
     <definedName name="data70">#REF!</definedName>
-    <definedName name="data38">#REF!</definedName>
-    <definedName name="qzqzqz29">#REF!</definedName>
-    <definedName name="data31">#REF!</definedName>
-    <definedName name="button_area_1">#REF!</definedName>
-    <definedName name="_tax1">#REF!</definedName>
+    <definedName name="data46">#REF!</definedName>
+    <definedName name="display_area_2">#REF!</definedName>
     <definedName name="data13">#REF!</definedName>
-    <definedName name="data3">#REF!</definedName>
-    <definedName name="data47">#REF!</definedName>
-    <definedName name="qzqzqz27">#REF!</definedName>
-    <definedName name="qzqzqz9">#REF!</definedName>
-    <definedName name="data22">#REF!</definedName>
-    <definedName name="data26">#REF!</definedName>
-    <definedName name="qzqzqz12">#REF!</definedName>
-    <definedName name="data65">#REF!</definedName>
-    <definedName name="qzqzqz15">#REF!</definedName>
-    <definedName name="data54">#REF!</definedName>
-    <definedName name="data62">#REF!</definedName>
+    <definedName name="data60">#REF!</definedName>
+    <definedName name="data32">#REF!</definedName>
+    <definedName name="qzqzqz32">#REF!</definedName>
+    <definedName name="data35">#REF!</definedName>
+    <definedName name="qzqzqz24">#REF!</definedName>
+    <definedName name="data52">#REF!</definedName>
+    <definedName name="data16">#REF!</definedName>
+    <definedName name="celltips_area">#REF!</definedName>
     <definedName name="_tax4">#REF!</definedName>
-    <definedName name="qzqzqz23">#REF!</definedName>
-    <definedName name="data67">#REF!</definedName>
-    <definedName name="data17">#REF!</definedName>
-    <definedName name="data29">#REF!</definedName>
-    <definedName name="qzqzqz32">#REF!</definedName>
-    <definedName name="data60">#REF!</definedName>
-    <definedName name="qzqzqz21">#REF!</definedName>
-    <definedName name="data56">#REF!</definedName>
-    <definedName name="data36">#REF!</definedName>
-    <definedName name="data45">#REF!</definedName>
-    <definedName name="data32">#REF!</definedName>
-    <definedName name="data42">#REF!</definedName>
-    <definedName name="data58">#REF!</definedName>
-    <definedName name="data7">#REF!</definedName>
-    <definedName name="data6">#REF!</definedName>
+    <definedName name="data51">#REF!</definedName>
     <definedName name="data1">#REF!</definedName>
-    <definedName name="data18">#REF!</definedName>
-    <definedName name="data15">#REF!</definedName>
-    <definedName name="_tax2">#REF!</definedName>
-    <definedName name="qzqzqz25">#REF!</definedName>
-    <definedName name="data21">#REF!</definedName>
-    <definedName name="data69">#REF!</definedName>
-    <definedName name="qzqzqz6">#REF!</definedName>
-    <definedName name="data8">#REF!</definedName>
-    <definedName name="data28">#REF!</definedName>
-    <definedName name="data16">#REF!</definedName>
-    <definedName name="qzqzqz8">#REF!</definedName>
-    <definedName name="data39">#REF!</definedName>
-    <definedName name="data5">#REF!</definedName>
-    <definedName name="data63">#REF!</definedName>
-    <definedName name="data50">#REF!</definedName>
-    <definedName name="qzqzqz14">#REF!</definedName>
-    <definedName name="celltips_area">#REF!</definedName>
-    <definedName name="qzqzqz13">#REF!</definedName>
-    <definedName name="data51">#REF!</definedName>
-    <definedName name="data59">#REF!</definedName>
-    <definedName name="data46">#REF!</definedName>
-    <definedName name="data44">#REF!</definedName>
-    <definedName name="data24">#REF!</definedName>
-    <definedName name="data49">#REF!</definedName>
-    <definedName name="display_area_2">#REF!</definedName>
-    <definedName name="data55">#REF!</definedName>
-    <definedName name="data20">#REF!</definedName>
-    <definedName name="qzqzqz30">#REF!</definedName>
-    <definedName name="data27">#REF!</definedName>
-    <definedName name="data64">#REF!</definedName>
-    <definedName name="data40">#REF!</definedName>
-    <definedName name="data37">#REF!</definedName>
-    <definedName name="data66">#REF!</definedName>
-    <definedName name="data41">#REF!</definedName>
-    <definedName name="qzqzqz11">#REF!</definedName>
-    <definedName name="qzqzqz31">#REF!</definedName>
-    <definedName name="data23">#REF!</definedName>
-    <definedName name="data61">#REF!</definedName>
-    <definedName name="_tax3">#REF!</definedName>
-    <definedName name="boxes">#REF!</definedName>
-    <definedName name="qzqzqz26">#REF!</definedName>
-    <definedName name="qzqzqz17">#REF!</definedName>
-    <definedName name="data9">#REF!</definedName>
-    <definedName name="data2">#REF!</definedName>
-    <definedName name="qzqzqz19">#REF!</definedName>
-    <definedName name="NO">#REF!</definedName>
-    <definedName name="data19">#REF!</definedName>
-    <definedName name="qzqzqz24">#REF!</definedName>
-    <definedName name="qzqzqz28">#REF!</definedName>
-    <definedName name="qzqzqz16">#REF!</definedName>
-    <definedName name="qzqzqz10">#REF!</definedName>
-    <definedName name="CCT">#REF!</definedName>
-    <definedName name="qzqzqz7">#REF!</definedName>
-    <definedName name="data12">#REF!</definedName>
-    <definedName name="data14">#REF!</definedName>
-    <definedName name="data35">#REF!</definedName>
-    <definedName name="data11">#REF!</definedName>
-    <definedName name="data48">#REF!</definedName>
-    <definedName name="data30">#REF!</definedName>
-    <definedName name="data68">#REF!</definedName>
-    <definedName name="data52">#REF!</definedName>
-    <definedName name="TOT">#REF!</definedName>
-    <definedName name="data57">#REF!</definedName>
-    <definedName name="qzqzqz18">#REF!</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjaWLhkrS0JQu9nCjS5fjhM5h/q5w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgKLIHFAXNEDc5FFH7SHtp+ZMjLpw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>Фактура</t>
   </si>
@@ -262,6 +262,9 @@
     <t>Забележки:</t>
   </si>
   <si>
+    <t>asdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasd</t>
+  </si>
+  <si>
     <t>Дата на данъчно събитие:</t>
   </si>
   <si>
@@ -272,6 +275,9 @@
   </si>
   <si>
     <t>Основание на сделката:</t>
+  </si>
+  <si>
+    <t>Чл.30 Ал.1 т.1 от ЗДДС</t>
   </si>
   <si>
     <t>IBAN:</t>
@@ -824,6 +830,9 @@
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -853,7 +862,7 @@
     </xf>
     <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" vertical="top"/>
@@ -920,9 +929,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1184,7 +1190,7 @@
     <col customWidth="1" min="9" max="9" width="10.14"/>
     <col customWidth="1" min="10" max="10" width="13.43"/>
     <col customWidth="1" min="11" max="11" width="1.71"/>
-    <col customWidth="1" min="12" max="12" width="7.43"/>
+    <col customWidth="1" min="12" max="12" width="11.57"/>
     <col customWidth="1" min="13" max="13" width="2.71"/>
     <col customWidth="1" min="14" max="14" width="1.57"/>
     <col customWidth="1" min="15" max="15" width="1.43"/>
@@ -1927,7 +1933,9 @@
       <c r="E27" s="65"/>
       <c r="F27" s="65"/>
       <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
+      <c r="H27" s="66" t="s">
+        <v>44</v>
+      </c>
       <c r="I27" s="34"/>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
@@ -1952,21 +1960,21 @@
     </row>
     <row r="28" ht="15.0" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="66" t="s">
-        <v>44</v>
+      <c r="B28" s="67" t="s">
+        <v>45</v>
       </c>
-      <c r="J28" s="67">
+      <c r="J28" s="68">
         <v>44587.0</v>
       </c>
-      <c r="M28" s="68" t="s">
-        <v>45</v>
+      <c r="M28" s="69" t="s">
+        <v>46</v>
       </c>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
-      <c r="R28" s="69" t="s">
-        <v>46</v>
+      <c r="R28" s="70" t="s">
+        <v>47</v>
       </c>
       <c r="AA28" s="20"/>
       <c r="AB28" s="2"/>
@@ -1974,15 +1982,17 @@
     </row>
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="M29" s="66" t="s">
+      <c r="B29" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="R29" s="71" t="s">
+      <c r="J29" s="3" t="s">
         <v>49</v>
+      </c>
+      <c r="M29" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="R29" s="72" t="s">
+        <v>51</v>
       </c>
       <c r="AA29" s="20"/>
       <c r="AB29" s="2"/>
@@ -2001,11 +2011,11 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="72"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
       <c r="R30" s="3"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -2015,21 +2025,21 @@
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
-      <c r="AA30" s="73"/>
+      <c r="AA30" s="74"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="2"/>
-      <c r="B31" s="66" t="s">
-        <v>50</v>
+      <c r="B31" s="67" t="s">
+        <v>52</v>
       </c>
       <c r="J31" s="3"/>
-      <c r="M31" s="66" t="s">
-        <v>51</v>
+      <c r="M31" s="67" t="s">
+        <v>53</v>
       </c>
-      <c r="R31" s="71" t="s">
-        <v>52</v>
+      <c r="R31" s="72" t="s">
+        <v>54</v>
       </c>
       <c r="AA31" s="20"/>
       <c r="AB31" s="2"/>
@@ -2048,11 +2058,11 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
       <c r="R32" s="3"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
@@ -2062,88 +2072,88 @@
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
-      <c r="AA32" s="73"/>
+      <c r="AA32" s="74"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="77" t="s">
+      <c r="B33" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="75"/>
-      <c r="R33" s="78" t="s">
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="S33" s="75"/>
-      <c r="T33" s="75"/>
-      <c r="U33" s="75"/>
-      <c r="V33" s="75"/>
-      <c r="W33" s="75"/>
-      <c r="X33" s="75"/>
-      <c r="Y33" s="75"/>
-      <c r="Z33" s="75"/>
-      <c r="AA33" s="79"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="S33" s="76"/>
+      <c r="T33" s="76"/>
+      <c r="U33" s="76"/>
+      <c r="V33" s="76"/>
+      <c r="W33" s="76"/>
+      <c r="X33" s="76"/>
+      <c r="Y33" s="76"/>
+      <c r="Z33" s="76"/>
+      <c r="AA33" s="80"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
     </row>
     <row r="34" ht="15.0" customHeight="1">
-      <c r="A34" s="80"/>
-      <c r="B34" s="81" t="s">
+      <c r="A34" s="81"/>
+      <c r="B34" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="83" t="s">
-        <v>57</v>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="84" t="s">
+        <v>59</v>
       </c>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="84"/>
-      <c r="S34" s="84"/>
-      <c r="T34" s="84"/>
-      <c r="U34" s="84"/>
-      <c r="V34" s="84"/>
-      <c r="W34" s="84"/>
-      <c r="X34" s="84"/>
-      <c r="Y34" s="84"/>
-      <c r="Z34" s="84"/>
-      <c r="AA34" s="85"/>
-      <c r="AB34" s="80"/>
-      <c r="AC34" s="80"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="85"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="85"/>
+      <c r="T34" s="85"/>
+      <c r="U34" s="85"/>
+      <c r="V34" s="85"/>
+      <c r="W34" s="85"/>
+      <c r="X34" s="85"/>
+      <c r="Y34" s="85"/>
+      <c r="Z34" s="85"/>
+      <c r="AA34" s="86"/>
+      <c r="AB34" s="81"/>
+      <c r="AC34" s="81"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="86"/>
-      <c r="B35" s="87" t="s">
-        <v>58</v>
+      <c r="A35" s="87"/>
+      <c r="B35" s="88" t="s">
+        <v>60</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -2151,80 +2161,80 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
-      <c r="I35" s="88" t="s">
-        <v>59</v>
+      <c r="I35" s="89" t="s">
+        <v>61</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
-      <c r="M35" s="89" t="s">
-        <v>58</v>
+      <c r="M35" s="90" t="s">
+        <v>60</v>
       </c>
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
-      <c r="S35" s="90" t="s">
-        <v>60</v>
+      <c r="S35" s="91" t="s">
+        <v>62</v>
       </c>
       <c r="AA35" s="20"/>
-      <c r="AB35" s="86"/>
-      <c r="AC35" s="86"/>
+      <c r="AB35" s="87"/>
+      <c r="AC35" s="87"/>
     </row>
     <row r="36" ht="19.5" customHeight="1">
       <c r="A36" s="2"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
       <c r="M36" s="56"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="92"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="92"/>
-      <c r="R36" s="92"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="93"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
     </row>
     <row r="37" ht="17.25" customHeight="1">
-      <c r="A37" s="93"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="96" t="s">
-        <v>61</v>
+      <c r="A37" s="94"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="97" t="s">
+        <v>63</v>
       </c>
-      <c r="L37" s="96"/>
-      <c r="M37" s="98"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="99"/>
-      <c r="T37" s="99"/>
-      <c r="U37" s="99"/>
-      <c r="V37" s="99"/>
-      <c r="W37" s="100" t="s">
-        <v>61</v>
+      <c r="L37" s="97"/>
+      <c r="M37" s="99"/>
+      <c r="N37" s="97"/>
+      <c r="O37" s="96"/>
+      <c r="P37" s="96"/>
+      <c r="Q37" s="96"/>
+      <c r="R37" s="96"/>
+      <c r="S37" s="100"/>
+      <c r="T37" s="100"/>
+      <c r="U37" s="100"/>
+      <c r="V37" s="100"/>
+      <c r="W37" s="101" t="s">
+        <v>63</v>
       </c>
-      <c r="X37" s="75"/>
-      <c r="Y37" s="75"/>
-      <c r="Z37" s="75"/>
-      <c r="AA37" s="79"/>
-      <c r="AB37" s="93"/>
-      <c r="AC37" s="93"/>
+      <c r="X37" s="76"/>
+      <c r="Y37" s="76"/>
+      <c r="Z37" s="76"/>
+      <c r="AA37" s="80"/>
+      <c r="AB37" s="94"/>
+      <c r="AC37" s="94"/>
     </row>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="2"/>
@@ -2258,12 +2268,12 @@
       <c r="AC38" s="2"/>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="A39" s="101"/>
-      <c r="B39" s="102" t="s">
-        <v>62</v>
+      <c r="A39" s="102"/>
+      <c r="B39" s="103" t="s">
+        <v>64</v>
       </c>
-      <c r="AB39" s="101"/>
-      <c r="AC39" s="101"/>
+      <c r="AB39" s="102"/>
+      <c r="AC39" s="102"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="2"/>
@@ -2794,32 +2804,32 @@
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="2"/>
-      <c r="B57" s="103"/>
-      <c r="C57" s="103"/>
-      <c r="D57" s="103"/>
-      <c r="E57" s="103"/>
-      <c r="F57" s="103"/>
-      <c r="G57" s="103"/>
-      <c r="H57" s="103"/>
-      <c r="I57" s="103"/>
-      <c r="J57" s="103"/>
-      <c r="K57" s="103"/>
-      <c r="L57" s="103"/>
-      <c r="M57" s="103"/>
-      <c r="N57" s="103"/>
-      <c r="O57" s="103"/>
-      <c r="P57" s="103"/>
-      <c r="Q57" s="103"/>
-      <c r="R57" s="103"/>
-      <c r="S57" s="103"/>
-      <c r="T57" s="103"/>
-      <c r="U57" s="103"/>
-      <c r="V57" s="103"/>
-      <c r="W57" s="103"/>
-      <c r="X57" s="103"/>
-      <c r="Y57" s="103"/>
-      <c r="Z57" s="103"/>
-      <c r="AA57" s="103"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="77"/>
+      <c r="J57" s="77"/>
+      <c r="K57" s="77"/>
+      <c r="L57" s="77"/>
+      <c r="M57" s="77"/>
+      <c r="N57" s="77"/>
+      <c r="O57" s="77"/>
+      <c r="P57" s="77"/>
+      <c r="Q57" s="77"/>
+      <c r="R57" s="77"/>
+      <c r="S57" s="77"/>
+      <c r="T57" s="77"/>
+      <c r="U57" s="77"/>
+      <c r="V57" s="77"/>
+      <c r="W57" s="77"/>
+      <c r="X57" s="77"/>
+      <c r="Y57" s="77"/>
+      <c r="Z57" s="77"/>
+      <c r="AA57" s="77"/>
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
     </row>

--- a/project/main/xlsx_files/course_invoice.xlsx
+++ b/project/main/xlsx_files/course_invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A81C06-C001-4627-9866-C42F689BAFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAC99CA-955C-4D6F-9D52-A296480861FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1668,100 +1668,93 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="40" fontId="18" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="40" fontId="18" fillId="3" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="40" fontId="18" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="40" fontId="18" fillId="3" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="40" fontId="18" fillId="3" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="40" fontId="18" fillId="3" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="40" fontId="18" fillId="3" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="40" fontId="18" fillId="3" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1778,184 +1771,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="25" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="40" fontId="27" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="3" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="25" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="27" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="25" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="25" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
@@ -1963,17 +1816,97 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
@@ -1984,69 +1917,136 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="22" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="25" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="25" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="40" fontId="27" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="27" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="40" fontId="25" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="25" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="25" fillId="3" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="40" fontId="18" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="4" fontId="25" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="40" fontId="18" fillId="3" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="40" fontId="27" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="27" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="40" fontId="18" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="40" fontId="18" fillId="3" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="40" fontId="18" fillId="3" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="40" fontId="18" fillId="3" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="40" fontId="18" fillId="3" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="40" fontId="18" fillId="3" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -2269,7 +2269,7 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21:W21"/>
+      <selection activeCell="M22" sqref="M22:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2306,35 +2306,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="160"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174"/>
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="174"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
@@ -2381,13 +2381,13 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="190" t="s">
+      <c r="L3" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="190"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -2450,19 +2450,19 @@
       <c r="N5" s="152"/>
       <c r="O5" s="152"/>
       <c r="P5" s="152"/>
-      <c r="Q5" s="191" t="s">
+      <c r="Q5" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="160"/>
-      <c r="S5" s="160"/>
-      <c r="T5" s="160"/>
+      <c r="R5" s="174"/>
+      <c r="S5" s="174"/>
+      <c r="T5" s="174"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="192"/>
-      <c r="W5" s="160"/>
-      <c r="X5" s="160"/>
-      <c r="Y5" s="160"/>
-      <c r="Z5" s="160"/>
-      <c r="AA5" s="160"/>
+      <c r="V5" s="203"/>
+      <c r="W5" s="174"/>
+      <c r="X5" s="174"/>
+      <c r="Y5" s="174"/>
+      <c r="Z5" s="174"/>
+      <c r="AA5" s="174"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="1"/>
     </row>
@@ -2483,19 +2483,19 @@
       <c r="N6" s="152"/>
       <c r="O6" s="152"/>
       <c r="P6" s="152"/>
-      <c r="Q6" s="191" t="s">
+      <c r="Q6" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="160"/>
-      <c r="S6" s="160"/>
-      <c r="T6" s="160"/>
+      <c r="R6" s="174"/>
+      <c r="S6" s="174"/>
+      <c r="T6" s="174"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="193"/>
-      <c r="W6" s="160"/>
-      <c r="X6" s="160"/>
-      <c r="Y6" s="160"/>
-      <c r="Z6" s="160"/>
-      <c r="AA6" s="160"/>
+      <c r="V6" s="204"/>
+      <c r="W6" s="174"/>
+      <c r="X6" s="174"/>
+      <c r="Y6" s="174"/>
+      <c r="Z6" s="174"/>
+      <c r="AA6" s="174"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="1"/>
     </row>
@@ -2516,10 +2516,10 @@
       <c r="N7" s="152"/>
       <c r="O7" s="152"/>
       <c r="P7" s="152"/>
-      <c r="Q7" s="160"/>
-      <c r="R7" s="160"/>
-      <c r="S7" s="160"/>
-      <c r="T7" s="160"/>
+      <c r="Q7" s="174"/>
+      <c r="R7" s="174"/>
+      <c r="S7" s="174"/>
+      <c r="T7" s="174"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -2561,38 +2561,38 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="186" t="s">
+      <c r="B9" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="186" t="s">
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="206"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="179"/>
+      <c r="M9" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="170"/>
-      <c r="R9" s="187"/>
-      <c r="S9" s="170"/>
-      <c r="T9" s="170"/>
-      <c r="U9" s="170"/>
-      <c r="V9" s="170"/>
-      <c r="W9" s="170"/>
-      <c r="X9" s="170"/>
-      <c r="Y9" s="170"/>
-      <c r="Z9" s="170"/>
-      <c r="AA9" s="188"/>
+      <c r="N9" s="179"/>
+      <c r="O9" s="179"/>
+      <c r="P9" s="179"/>
+      <c r="Q9" s="179"/>
+      <c r="R9" s="206"/>
+      <c r="S9" s="179"/>
+      <c r="T9" s="179"/>
+      <c r="U9" s="179"/>
+      <c r="V9" s="179"/>
+      <c r="W9" s="179"/>
+      <c r="X9" s="179"/>
+      <c r="Y9" s="179"/>
+      <c r="Z9" s="179"/>
+      <c r="AA9" s="180"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
@@ -2629,141 +2629,141 @@
     </row>
     <row r="11" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="174" t="s">
+      <c r="B11" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="160"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="160"/>
-      <c r="K11" s="160"/>
-      <c r="L11" s="160"/>
-      <c r="M11" s="174" t="s">
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="208"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="174"/>
+      <c r="M11" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="160"/>
-      <c r="O11" s="160"/>
-      <c r="P11" s="160"/>
-      <c r="Q11" s="160"/>
-      <c r="R11" s="176"/>
-      <c r="S11" s="160"/>
-      <c r="T11" s="160"/>
-      <c r="U11" s="160"/>
-      <c r="V11" s="160"/>
-      <c r="W11" s="160"/>
-      <c r="X11" s="160"/>
-      <c r="Y11" s="160"/>
-      <c r="Z11" s="160"/>
-      <c r="AA11" s="164"/>
+      <c r="N11" s="174"/>
+      <c r="O11" s="174"/>
+      <c r="P11" s="174"/>
+      <c r="Q11" s="174"/>
+      <c r="R11" s="208"/>
+      <c r="S11" s="174"/>
+      <c r="T11" s="174"/>
+      <c r="U11" s="174"/>
+      <c r="V11" s="174"/>
+      <c r="W11" s="174"/>
+      <c r="X11" s="174"/>
+      <c r="Y11" s="174"/>
+      <c r="Z11" s="174"/>
+      <c r="AA11" s="175"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="174" t="s">
+      <c r="B12" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="160"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="160"/>
-      <c r="L12" s="160"/>
-      <c r="M12" s="174" t="s">
+      <c r="C12" s="174"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="208"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="174"/>
+      <c r="M12" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="160"/>
-      <c r="O12" s="160"/>
-      <c r="P12" s="160"/>
-      <c r="Q12" s="160"/>
-      <c r="R12" s="176"/>
-      <c r="S12" s="160"/>
-      <c r="T12" s="160"/>
-      <c r="U12" s="160"/>
-      <c r="V12" s="160"/>
-      <c r="W12" s="160"/>
-      <c r="X12" s="160"/>
-      <c r="Y12" s="160"/>
-      <c r="Z12" s="160"/>
-      <c r="AA12" s="164"/>
+      <c r="N12" s="174"/>
+      <c r="O12" s="174"/>
+      <c r="P12" s="174"/>
+      <c r="Q12" s="174"/>
+      <c r="R12" s="208"/>
+      <c r="S12" s="174"/>
+      <c r="T12" s="174"/>
+      <c r="U12" s="174"/>
+      <c r="V12" s="174"/>
+      <c r="W12" s="174"/>
+      <c r="X12" s="174"/>
+      <c r="Y12" s="174"/>
+      <c r="Z12" s="174"/>
+      <c r="AA12" s="175"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="174" t="s">
+      <c r="B13" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="160"/>
-      <c r="K13" s="160"/>
-      <c r="L13" s="160"/>
-      <c r="M13" s="174" t="s">
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="208"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="174"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="174"/>
+      <c r="M13" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="160"/>
-      <c r="O13" s="160"/>
-      <c r="P13" s="160"/>
-      <c r="Q13" s="160"/>
-      <c r="R13" s="176"/>
-      <c r="S13" s="160"/>
-      <c r="T13" s="160"/>
-      <c r="U13" s="160"/>
-      <c r="V13" s="160"/>
-      <c r="W13" s="160"/>
-      <c r="X13" s="160"/>
-      <c r="Y13" s="160"/>
-      <c r="Z13" s="160"/>
-      <c r="AA13" s="164"/>
+      <c r="N13" s="174"/>
+      <c r="O13" s="174"/>
+      <c r="P13" s="174"/>
+      <c r="Q13" s="174"/>
+      <c r="R13" s="208"/>
+      <c r="S13" s="174"/>
+      <c r="T13" s="174"/>
+      <c r="U13" s="174"/>
+      <c r="V13" s="174"/>
+      <c r="W13" s="174"/>
+      <c r="X13" s="174"/>
+      <c r="Y13" s="174"/>
+      <c r="Z13" s="174"/>
+      <c r="AA13" s="175"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="174" t="s">
+      <c r="B14" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="160"/>
-      <c r="M14" s="174" t="s">
+      <c r="C14" s="174"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="209"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="174"/>
+      <c r="M14" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="160"/>
-      <c r="O14" s="160"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="160"/>
-      <c r="R14" s="184"/>
-      <c r="S14" s="160"/>
-      <c r="T14" s="160"/>
-      <c r="U14" s="160"/>
-      <c r="V14" s="160"/>
-      <c r="W14" s="160"/>
-      <c r="X14" s="160"/>
-      <c r="Y14" s="160"/>
-      <c r="Z14" s="160"/>
-      <c r="AA14" s="164"/>
+      <c r="N14" s="174"/>
+      <c r="O14" s="174"/>
+      <c r="P14" s="174"/>
+      <c r="Q14" s="174"/>
+      <c r="R14" s="209"/>
+      <c r="S14" s="174"/>
+      <c r="T14" s="174"/>
+      <c r="U14" s="174"/>
+      <c r="V14" s="174"/>
+      <c r="W14" s="174"/>
+      <c r="X14" s="174"/>
+      <c r="Y14" s="174"/>
+      <c r="Z14" s="174"/>
+      <c r="AA14" s="175"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
@@ -2800,71 +2800,71 @@
     </row>
     <row r="16" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="174" t="s">
+      <c r="B16" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="160"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="160"/>
-      <c r="M16" s="174" t="s">
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="210"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="174"/>
+      <c r="M16" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="160"/>
-      <c r="O16" s="160"/>
-      <c r="P16" s="160"/>
-      <c r="Q16" s="160"/>
-      <c r="R16" s="184"/>
-      <c r="S16" s="160"/>
-      <c r="T16" s="160"/>
-      <c r="U16" s="160"/>
-      <c r="V16" s="160"/>
-      <c r="W16" s="160"/>
-      <c r="X16" s="160"/>
-      <c r="Y16" s="160"/>
-      <c r="Z16" s="160"/>
-      <c r="AA16" s="164"/>
+      <c r="N16" s="174"/>
+      <c r="O16" s="174"/>
+      <c r="P16" s="174"/>
+      <c r="Q16" s="174"/>
+      <c r="R16" s="209"/>
+      <c r="S16" s="174"/>
+      <c r="T16" s="174"/>
+      <c r="U16" s="174"/>
+      <c r="V16" s="174"/>
+      <c r="W16" s="174"/>
+      <c r="X16" s="174"/>
+      <c r="Y16" s="174"/>
+      <c r="Z16" s="174"/>
+      <c r="AA16" s="175"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="174" t="s">
+      <c r="B17" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="160"/>
-      <c r="D17" s="160"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
-      <c r="K17" s="160"/>
-      <c r="L17" s="160"/>
-      <c r="M17" s="174" t="s">
+      <c r="C17" s="174"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="174"/>
+      <c r="K17" s="174"/>
+      <c r="L17" s="174"/>
+      <c r="M17" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="160"/>
-      <c r="O17" s="160"/>
-      <c r="P17" s="160"/>
-      <c r="Q17" s="160"/>
-      <c r="R17" s="175"/>
-      <c r="S17" s="160"/>
-      <c r="T17" s="160"/>
-      <c r="U17" s="160"/>
-      <c r="V17" s="160"/>
-      <c r="W17" s="160"/>
-      <c r="X17" s="160"/>
-      <c r="Y17" s="160"/>
-      <c r="Z17" s="160"/>
-      <c r="AA17" s="164"/>
+      <c r="N17" s="174"/>
+      <c r="O17" s="174"/>
+      <c r="P17" s="174"/>
+      <c r="Q17" s="174"/>
+      <c r="R17" s="211"/>
+      <c r="S17" s="174"/>
+      <c r="T17" s="174"/>
+      <c r="U17" s="174"/>
+      <c r="V17" s="174"/>
+      <c r="W17" s="174"/>
+      <c r="X17" s="174"/>
+      <c r="Y17" s="174"/>
+      <c r="Z17" s="174"/>
+      <c r="AA17" s="175"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
@@ -2935,41 +2935,41 @@
       <c r="B20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="177" t="s">
+      <c r="C20" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="178"/>
-      <c r="L20" s="178"/>
-      <c r="M20" s="177" t="s">
+      <c r="D20" s="166"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="296"/>
-      <c r="O20" s="296"/>
-      <c r="P20" s="297"/>
-      <c r="Q20" s="180" t="s">
+      <c r="N20" s="213"/>
+      <c r="O20" s="213"/>
+      <c r="P20" s="214"/>
+      <c r="Q20" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="R20" s="181"/>
-      <c r="S20" s="182"/>
-      <c r="T20" s="180" t="s">
+      <c r="R20" s="216"/>
+      <c r="S20" s="217"/>
+      <c r="T20" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="U20" s="181"/>
-      <c r="V20" s="181"/>
-      <c r="W20" s="182"/>
-      <c r="X20" s="183" t="s">
+      <c r="U20" s="216"/>
+      <c r="V20" s="216"/>
+      <c r="W20" s="217"/>
+      <c r="X20" s="218" t="s">
         <v>17</v>
       </c>
-      <c r="Y20" s="181"/>
-      <c r="Z20" s="181"/>
-      <c r="AA20" s="182"/>
+      <c r="Y20" s="216"/>
+      <c r="Z20" s="216"/>
+      <c r="AA20" s="217"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
@@ -2978,38 +2978,38 @@
       <c r="B21" s="20">
         <v>1</v>
       </c>
-      <c r="C21" s="210"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="178"/>
-      <c r="L21" s="178"/>
-      <c r="M21" s="201" t="s">
+      <c r="C21" s="169"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="166"/>
+      <c r="L21" s="166"/>
+      <c r="M21" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="300"/>
-      <c r="O21" s="300"/>
-      <c r="P21" s="301"/>
-      <c r="Q21" s="211">
+      <c r="N21" s="171"/>
+      <c r="O21" s="171"/>
+      <c r="P21" s="172"/>
+      <c r="Q21" s="173">
         <v>1</v>
       </c>
-      <c r="R21" s="160"/>
-      <c r="S21" s="164"/>
-      <c r="T21" s="212"/>
-      <c r="U21" s="160"/>
-      <c r="V21" s="160"/>
-      <c r="W21" s="164"/>
-      <c r="X21" s="213">
+      <c r="R21" s="174"/>
+      <c r="S21" s="175"/>
+      <c r="T21" s="176"/>
+      <c r="U21" s="174"/>
+      <c r="V21" s="174"/>
+      <c r="W21" s="175"/>
+      <c r="X21" s="177">
         <f>T21</f>
         <v>0</v>
       </c>
-      <c r="Y21" s="160"/>
-      <c r="Z21" s="160"/>
-      <c r="AA21" s="164"/>
+      <c r="Y21" s="174"/>
+      <c r="Z21" s="174"/>
+      <c r="AA21" s="175"/>
       <c r="AB21" s="19"/>
       <c r="AC21" s="19"/>
     </row>
@@ -3018,33 +3018,33 @@
       <c r="B22" s="21">
         <v>2</v>
       </c>
-      <c r="C22" s="214" t="s">
+      <c r="C22" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="215"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="178"/>
-      <c r="L22" s="178"/>
-      <c r="M22" s="201"/>
-      <c r="N22" s="300"/>
-      <c r="O22" s="300"/>
-      <c r="P22" s="301"/>
-      <c r="Q22" s="202"/>
-      <c r="R22" s="170"/>
-      <c r="S22" s="188"/>
-      <c r="T22" s="202"/>
-      <c r="U22" s="170"/>
-      <c r="V22" s="170"/>
-      <c r="W22" s="188"/>
-      <c r="X22" s="202"/>
-      <c r="Y22" s="170"/>
-      <c r="Z22" s="170"/>
-      <c r="AA22" s="188"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="166"/>
+      <c r="K22" s="166"/>
+      <c r="L22" s="166"/>
+      <c r="M22" s="170"/>
+      <c r="N22" s="171"/>
+      <c r="O22" s="171"/>
+      <c r="P22" s="172"/>
+      <c r="Q22" s="182"/>
+      <c r="R22" s="179"/>
+      <c r="S22" s="180"/>
+      <c r="T22" s="182"/>
+      <c r="U22" s="179"/>
+      <c r="V22" s="179"/>
+      <c r="W22" s="180"/>
+      <c r="X22" s="182"/>
+      <c r="Y22" s="179"/>
+      <c r="Z22" s="179"/>
+      <c r="AA22" s="180"/>
       <c r="AB22" s="19"/>
       <c r="AC22" s="19"/>
     </row>
@@ -3053,29 +3053,29 @@
       <c r="B23" s="22">
         <v>3</v>
       </c>
-      <c r="C23" s="207" t="s">
+      <c r="C23" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="208"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="178"/>
-      <c r="M23" s="209"/>
-      <c r="N23" s="298"/>
-      <c r="O23" s="298"/>
-      <c r="P23" s="299"/>
-      <c r="Q23" s="209"/>
-      <c r="R23" s="178"/>
-      <c r="S23" s="179"/>
-      <c r="T23" s="209"/>
-      <c r="U23" s="178"/>
-      <c r="V23" s="178"/>
-      <c r="W23" s="179"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="189"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="166"/>
+      <c r="K23" s="166"/>
+      <c r="L23" s="166"/>
+      <c r="M23" s="190"/>
+      <c r="N23" s="191"/>
+      <c r="O23" s="191"/>
+      <c r="P23" s="192"/>
+      <c r="Q23" s="190"/>
+      <c r="R23" s="166"/>
+      <c r="S23" s="185"/>
+      <c r="T23" s="190"/>
+      <c r="U23" s="166"/>
+      <c r="V23" s="166"/>
+      <c r="W23" s="185"/>
       <c r="X23" s="23"/>
       <c r="Y23" s="23"/>
       <c r="Z23" s="23"/>
@@ -3092,29 +3092,29 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="203"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="160"/>
-      <c r="K24" s="160"/>
-      <c r="L24" s="160"/>
-      <c r="M24" s="160"/>
-      <c r="N24" s="160"/>
-      <c r="O24" s="160"/>
-      <c r="P24" s="160"/>
-      <c r="Q24" s="204" t="s">
+      <c r="G24" s="183"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="174"/>
+      <c r="L24" s="174"/>
+      <c r="M24" s="174"/>
+      <c r="N24" s="174"/>
+      <c r="O24" s="174"/>
+      <c r="P24" s="174"/>
+      <c r="Q24" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="R24" s="178"/>
-      <c r="S24" s="178"/>
-      <c r="T24" s="178"/>
-      <c r="U24" s="178"/>
-      <c r="V24" s="178"/>
-      <c r="W24" s="179"/>
-      <c r="X24" s="205"/>
-      <c r="Y24" s="178"/>
-      <c r="Z24" s="178"/>
-      <c r="AA24" s="179"/>
+      <c r="R24" s="166"/>
+      <c r="S24" s="166"/>
+      <c r="T24" s="166"/>
+      <c r="U24" s="166"/>
+      <c r="V24" s="166"/>
+      <c r="W24" s="185"/>
+      <c r="X24" s="186"/>
+      <c r="Y24" s="166"/>
+      <c r="Z24" s="166"/>
+      <c r="AA24" s="185"/>
       <c r="AB24" s="26"/>
       <c r="AC24" s="26"/>
     </row>
@@ -3125,29 +3125,29 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="160"/>
-      <c r="K25" s="160"/>
-      <c r="L25" s="160"/>
-      <c r="M25" s="160"/>
-      <c r="N25" s="160"/>
-      <c r="O25" s="160"/>
-      <c r="P25" s="160"/>
-      <c r="Q25" s="204" t="s">
+      <c r="G25" s="174"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="174"/>
+      <c r="K25" s="174"/>
+      <c r="L25" s="174"/>
+      <c r="M25" s="174"/>
+      <c r="N25" s="174"/>
+      <c r="O25" s="174"/>
+      <c r="P25" s="174"/>
+      <c r="Q25" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="R25" s="178"/>
-      <c r="S25" s="178"/>
-      <c r="T25" s="178"/>
-      <c r="U25" s="178"/>
-      <c r="V25" s="178"/>
-      <c r="W25" s="179"/>
-      <c r="X25" s="206"/>
-      <c r="Y25" s="178"/>
-      <c r="Z25" s="178"/>
-      <c r="AA25" s="179"/>
+      <c r="R25" s="166"/>
+      <c r="S25" s="166"/>
+      <c r="T25" s="166"/>
+      <c r="U25" s="166"/>
+      <c r="V25" s="166"/>
+      <c r="W25" s="185"/>
+      <c r="X25" s="187"/>
+      <c r="Y25" s="166"/>
+      <c r="Z25" s="166"/>
+      <c r="AA25" s="185"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
@@ -3158,29 +3158,29 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="160"/>
-      <c r="K26" s="160"/>
-      <c r="L26" s="160"/>
-      <c r="M26" s="160"/>
-      <c r="N26" s="160"/>
-      <c r="O26" s="160"/>
-      <c r="P26" s="160"/>
-      <c r="Q26" s="199" t="s">
+      <c r="G26" s="174"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="174"/>
+      <c r="K26" s="174"/>
+      <c r="L26" s="174"/>
+      <c r="M26" s="174"/>
+      <c r="N26" s="174"/>
+      <c r="O26" s="174"/>
+      <c r="P26" s="174"/>
+      <c r="Q26" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="R26" s="170"/>
-      <c r="S26" s="170"/>
-      <c r="T26" s="170"/>
-      <c r="U26" s="170"/>
-      <c r="V26" s="170"/>
-      <c r="W26" s="188"/>
-      <c r="X26" s="200"/>
-      <c r="Y26" s="170"/>
-      <c r="Z26" s="170"/>
-      <c r="AA26" s="188"/>
+      <c r="R26" s="179"/>
+      <c r="S26" s="179"/>
+      <c r="T26" s="179"/>
+      <c r="U26" s="179"/>
+      <c r="V26" s="179"/>
+      <c r="W26" s="180"/>
+      <c r="X26" s="181"/>
+      <c r="Y26" s="179"/>
+      <c r="Z26" s="179"/>
+      <c r="AA26" s="180"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
@@ -3194,96 +3194,96 @@
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="178"/>
-      <c r="K27" s="178"/>
-      <c r="L27" s="178"/>
-      <c r="M27" s="178"/>
-      <c r="N27" s="178"/>
-      <c r="O27" s="178"/>
-      <c r="P27" s="178"/>
-      <c r="Q27" s="178"/>
-      <c r="R27" s="178"/>
-      <c r="S27" s="178"/>
-      <c r="T27" s="178"/>
-      <c r="U27" s="178"/>
-      <c r="V27" s="178"/>
-      <c r="W27" s="178"/>
-      <c r="X27" s="178"/>
-      <c r="Y27" s="178"/>
-      <c r="Z27" s="178"/>
-      <c r="AA27" s="179"/>
+      <c r="H27" s="195"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
+      <c r="K27" s="166"/>
+      <c r="L27" s="166"/>
+      <c r="M27" s="166"/>
+      <c r="N27" s="166"/>
+      <c r="O27" s="166"/>
+      <c r="P27" s="166"/>
+      <c r="Q27" s="166"/>
+      <c r="R27" s="166"/>
+      <c r="S27" s="166"/>
+      <c r="T27" s="166"/>
+      <c r="U27" s="166"/>
+      <c r="V27" s="166"/>
+      <c r="W27" s="166"/>
+      <c r="X27" s="166"/>
+      <c r="Y27" s="166"/>
+      <c r="Z27" s="166"/>
+      <c r="AA27" s="185"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
     <row r="28" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="161" t="s">
+      <c r="B28" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="195"/>
-      <c r="K28" s="160"/>
-      <c r="L28" s="160"/>
-      <c r="M28" s="196" t="s">
+      <c r="C28" s="174"/>
+      <c r="D28" s="174"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="196"/>
+      <c r="K28" s="174"/>
+      <c r="L28" s="174"/>
+      <c r="M28" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="N28" s="170"/>
-      <c r="O28" s="170"/>
-      <c r="P28" s="170"/>
-      <c r="Q28" s="170"/>
-      <c r="R28" s="197"/>
-      <c r="S28" s="160"/>
-      <c r="T28" s="160"/>
-      <c r="U28" s="160"/>
-      <c r="V28" s="160"/>
-      <c r="W28" s="160"/>
-      <c r="X28" s="160"/>
-      <c r="Y28" s="160"/>
-      <c r="Z28" s="160"/>
-      <c r="AA28" s="164"/>
+      <c r="N28" s="179"/>
+      <c r="O28" s="179"/>
+      <c r="P28" s="179"/>
+      <c r="Q28" s="179"/>
+      <c r="R28" s="198"/>
+      <c r="S28" s="174"/>
+      <c r="T28" s="174"/>
+      <c r="U28" s="174"/>
+      <c r="V28" s="174"/>
+      <c r="W28" s="174"/>
+      <c r="X28" s="174"/>
+      <c r="Y28" s="174"/>
+      <c r="Z28" s="174"/>
+      <c r="AA28" s="175"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
     <row r="29" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="198" t="s">
+      <c r="B29" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="162"/>
-      <c r="K29" s="160"/>
-      <c r="L29" s="160"/>
-      <c r="M29" s="161" t="s">
+      <c r="C29" s="174"/>
+      <c r="D29" s="174"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="200"/>
+      <c r="K29" s="174"/>
+      <c r="L29" s="174"/>
+      <c r="M29" s="193" t="s">
         <v>29</v>
       </c>
-      <c r="N29" s="160"/>
-      <c r="O29" s="160"/>
-      <c r="P29" s="160"/>
-      <c r="Q29" s="160"/>
-      <c r="R29" s="163"/>
-      <c r="S29" s="160"/>
-      <c r="T29" s="160"/>
-      <c r="U29" s="160"/>
-      <c r="V29" s="160"/>
-      <c r="W29" s="160"/>
-      <c r="X29" s="160"/>
-      <c r="Y29" s="160"/>
-      <c r="Z29" s="160"/>
-      <c r="AA29" s="164"/>
+      <c r="N29" s="174"/>
+      <c r="O29" s="174"/>
+      <c r="P29" s="174"/>
+      <c r="Q29" s="174"/>
+      <c r="R29" s="194"/>
+      <c r="S29" s="174"/>
+      <c r="T29" s="174"/>
+      <c r="U29" s="174"/>
+      <c r="V29" s="174"/>
+      <c r="W29" s="174"/>
+      <c r="X29" s="174"/>
+      <c r="Y29" s="174"/>
+      <c r="Z29" s="174"/>
+      <c r="AA29" s="175"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
@@ -3320,36 +3320,36 @@
     </row>
     <row r="31" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="161" t="s">
+      <c r="B31" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="160"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="162"/>
-      <c r="K31" s="160"/>
-      <c r="L31" s="160"/>
-      <c r="M31" s="161" t="s">
+      <c r="C31" s="174"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="200"/>
+      <c r="K31" s="174"/>
+      <c r="L31" s="174"/>
+      <c r="M31" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="N31" s="160"/>
-      <c r="O31" s="160"/>
-      <c r="P31" s="160"/>
-      <c r="Q31" s="160"/>
-      <c r="R31" s="163"/>
-      <c r="S31" s="160"/>
-      <c r="T31" s="160"/>
-      <c r="U31" s="160"/>
-      <c r="V31" s="160"/>
-      <c r="W31" s="160"/>
-      <c r="X31" s="160"/>
-      <c r="Y31" s="160"/>
-      <c r="Z31" s="160"/>
-      <c r="AA31" s="164"/>
+      <c r="N31" s="174"/>
+      <c r="O31" s="174"/>
+      <c r="P31" s="174"/>
+      <c r="Q31" s="174"/>
+      <c r="R31" s="194"/>
+      <c r="S31" s="174"/>
+      <c r="T31" s="174"/>
+      <c r="U31" s="174"/>
+      <c r="V31" s="174"/>
+      <c r="W31" s="174"/>
+      <c r="X31" s="174"/>
+      <c r="Y31" s="174"/>
+      <c r="Z31" s="174"/>
+      <c r="AA31" s="175"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
@@ -3386,38 +3386,38 @@
     </row>
     <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="168" t="s">
+      <c r="B33" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="165" t="s">
+      <c r="C33" s="220"/>
+      <c r="D33" s="220"/>
+      <c r="E33" s="220"/>
+      <c r="F33" s="220"/>
+      <c r="G33" s="220"/>
+      <c r="H33" s="220"/>
+      <c r="I33" s="220"/>
+      <c r="J33" s="224" t="s">
         <v>33</v>
       </c>
-      <c r="K33" s="156"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="166" t="s">
+      <c r="K33" s="220"/>
+      <c r="L33" s="220"/>
+      <c r="M33" s="225" t="s">
         <v>34</v>
       </c>
-      <c r="N33" s="156"/>
-      <c r="O33" s="156"/>
-      <c r="P33" s="156"/>
-      <c r="Q33" s="156"/>
-      <c r="R33" s="167"/>
-      <c r="S33" s="156"/>
-      <c r="T33" s="156"/>
-      <c r="U33" s="156"/>
-      <c r="V33" s="156"/>
-      <c r="W33" s="156"/>
-      <c r="X33" s="156"/>
-      <c r="Y33" s="156"/>
-      <c r="Z33" s="156"/>
-      <c r="AA33" s="158"/>
+      <c r="N33" s="220"/>
+      <c r="O33" s="220"/>
+      <c r="P33" s="220"/>
+      <c r="Q33" s="220"/>
+      <c r="R33" s="226"/>
+      <c r="S33" s="220"/>
+      <c r="T33" s="220"/>
+      <c r="U33" s="220"/>
+      <c r="V33" s="220"/>
+      <c r="W33" s="220"/>
+      <c r="X33" s="220"/>
+      <c r="Y33" s="220"/>
+      <c r="Z33" s="220"/>
+      <c r="AA33" s="222"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
@@ -3458,36 +3458,36 @@
     </row>
     <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="37"/>
-      <c r="B35" s="169" t="s">
+      <c r="B35" s="228" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="170"/>
-      <c r="H35" s="170"/>
-      <c r="I35" s="171"/>
-      <c r="J35" s="170"/>
-      <c r="K35" s="170"/>
-      <c r="L35" s="170"/>
-      <c r="M35" s="172" t="s">
+      <c r="C35" s="179"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="179"/>
+      <c r="F35" s="179"/>
+      <c r="G35" s="179"/>
+      <c r="H35" s="179"/>
+      <c r="I35" s="229"/>
+      <c r="J35" s="179"/>
+      <c r="K35" s="179"/>
+      <c r="L35" s="179"/>
+      <c r="M35" s="230" t="s">
         <v>36</v>
       </c>
-      <c r="N35" s="170"/>
-      <c r="O35" s="170"/>
-      <c r="P35" s="170"/>
-      <c r="Q35" s="170"/>
-      <c r="R35" s="170"/>
-      <c r="S35" s="173"/>
-      <c r="T35" s="160"/>
-      <c r="U35" s="160"/>
-      <c r="V35" s="160"/>
-      <c r="W35" s="160"/>
-      <c r="X35" s="160"/>
-      <c r="Y35" s="160"/>
-      <c r="Z35" s="160"/>
-      <c r="AA35" s="164"/>
+      <c r="N35" s="179"/>
+      <c r="O35" s="179"/>
+      <c r="P35" s="179"/>
+      <c r="Q35" s="179"/>
+      <c r="R35" s="179"/>
+      <c r="S35" s="231"/>
+      <c r="T35" s="174"/>
+      <c r="U35" s="174"/>
+      <c r="V35" s="174"/>
+      <c r="W35" s="174"/>
+      <c r="X35" s="174"/>
+      <c r="Y35" s="174"/>
+      <c r="Z35" s="174"/>
+      <c r="AA35" s="175"/>
       <c r="AB35" s="37"/>
       <c r="AC35" s="37"/>
     </row>
@@ -3500,25 +3500,25 @@
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="160"/>
-      <c r="K36" s="160"/>
-      <c r="L36" s="160"/>
+      <c r="I36" s="174"/>
+      <c r="J36" s="174"/>
+      <c r="K36" s="174"/>
+      <c r="L36" s="174"/>
       <c r="M36" s="25"/>
       <c r="N36" s="152"/>
       <c r="O36" s="39"/>
       <c r="P36" s="39"/>
       <c r="Q36" s="39"/>
       <c r="R36" s="39"/>
-      <c r="S36" s="160"/>
-      <c r="T36" s="160"/>
-      <c r="U36" s="160"/>
-      <c r="V36" s="160"/>
-      <c r="W36" s="160"/>
-      <c r="X36" s="160"/>
-      <c r="Y36" s="160"/>
-      <c r="Z36" s="160"/>
-      <c r="AA36" s="164"/>
+      <c r="S36" s="174"/>
+      <c r="T36" s="174"/>
+      <c r="U36" s="174"/>
+      <c r="V36" s="174"/>
+      <c r="W36" s="174"/>
+      <c r="X36" s="174"/>
+      <c r="Y36" s="174"/>
+      <c r="Z36" s="174"/>
+      <c r="AA36" s="175"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
     </row>
@@ -3529,10 +3529,10 @@
       <c r="D37" s="42"/>
       <c r="E37" s="42"/>
       <c r="F37" s="43"/>
-      <c r="G37" s="155"/>
-      <c r="H37" s="156"/>
-      <c r="I37" s="156"/>
-      <c r="J37" s="156"/>
+      <c r="G37" s="219"/>
+      <c r="H37" s="220"/>
+      <c r="I37" s="220"/>
+      <c r="J37" s="220"/>
       <c r="K37" s="43" t="s">
         <v>37</v>
       </c>
@@ -3547,13 +3547,13 @@
       <c r="T37" s="45"/>
       <c r="U37" s="45"/>
       <c r="V37" s="45"/>
-      <c r="W37" s="157" t="s">
+      <c r="W37" s="221" t="s">
         <v>37</v>
       </c>
-      <c r="X37" s="156"/>
-      <c r="Y37" s="156"/>
-      <c r="Z37" s="156"/>
-      <c r="AA37" s="158"/>
+      <c r="X37" s="220"/>
+      <c r="Y37" s="220"/>
+      <c r="Z37" s="220"/>
+      <c r="AA37" s="222"/>
       <c r="AB37" s="40"/>
       <c r="AC37" s="40"/>
     </row>
@@ -3590,34 +3590,34 @@
     </row>
     <row r="39" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
-      <c r="B39" s="159" t="s">
+      <c r="B39" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="160"/>
-      <c r="D39" s="160"/>
-      <c r="E39" s="160"/>
-      <c r="F39" s="160"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="160"/>
-      <c r="I39" s="160"/>
-      <c r="J39" s="160"/>
-      <c r="K39" s="160"/>
-      <c r="L39" s="160"/>
-      <c r="M39" s="160"/>
-      <c r="N39" s="160"/>
-      <c r="O39" s="160"/>
-      <c r="P39" s="160"/>
-      <c r="Q39" s="160"/>
-      <c r="R39" s="160"/>
-      <c r="S39" s="160"/>
-      <c r="T39" s="160"/>
-      <c r="U39" s="160"/>
-      <c r="V39" s="160"/>
-      <c r="W39" s="160"/>
-      <c r="X39" s="160"/>
-      <c r="Y39" s="160"/>
-      <c r="Z39" s="160"/>
-      <c r="AA39" s="160"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="174"/>
+      <c r="H39" s="174"/>
+      <c r="I39" s="174"/>
+      <c r="J39" s="174"/>
+      <c r="K39" s="174"/>
+      <c r="L39" s="174"/>
+      <c r="M39" s="174"/>
+      <c r="N39" s="174"/>
+      <c r="O39" s="174"/>
+      <c r="P39" s="174"/>
+      <c r="Q39" s="174"/>
+      <c r="R39" s="174"/>
+      <c r="S39" s="174"/>
+      <c r="T39" s="174"/>
+      <c r="U39" s="174"/>
+      <c r="V39" s="174"/>
+      <c r="W39" s="174"/>
+      <c r="X39" s="174"/>
+      <c r="Y39" s="174"/>
+      <c r="Z39" s="174"/>
+      <c r="AA39" s="174"/>
       <c r="AB39" s="46"/>
       <c r="AC39" s="46"/>
     </row>
@@ -33414,77 +33414,6 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="X21:AA21"/>
-    <mergeCell ref="Q26:W26"/>
-    <mergeCell ref="X26:AA26"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="G24:P26"/>
-    <mergeCell ref="Q24:W24"/>
-    <mergeCell ref="X24:AA24"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="X25:AA25"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="R29:AA29"/>
-    <mergeCell ref="H27:AA27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="R28:AA28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="V5:AA5"/>
-    <mergeCell ref="Q6:T7"/>
-    <mergeCell ref="V6:AA6"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="R9:AA9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="R11:AA11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="R12:AA12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="R13:AA13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="R14:AA14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="R16:AA16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="R17:AA17"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="X20:AA20"/>
     <mergeCell ref="G37:J37"/>
     <mergeCell ref="W37:AA37"/>
     <mergeCell ref="B39:AA39"/>
@@ -33500,6 +33429,77 @@
     <mergeCell ref="I35:L36"/>
     <mergeCell ref="M35:R35"/>
     <mergeCell ref="S35:AA36"/>
+    <mergeCell ref="R17:AA17"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="X20:AA20"/>
+    <mergeCell ref="R14:AA14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="R16:AA16"/>
+    <mergeCell ref="R12:AA12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="R13:AA13"/>
+    <mergeCell ref="R9:AA9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="R11:AA11"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="V5:AA5"/>
+    <mergeCell ref="Q6:T7"/>
+    <mergeCell ref="V6:AA6"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="R29:AA29"/>
+    <mergeCell ref="H27:AA27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="R28:AA28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="G24:P26"/>
+    <mergeCell ref="Q24:W24"/>
+    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="X25:AA25"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="X21:AA21"/>
+    <mergeCell ref="Q26:W26"/>
+    <mergeCell ref="X26:AA26"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B17:F17"/>
   </mergeCells>
   <conditionalFormatting sqref="G24:P26">
     <cfRule type="colorScale" priority="1">
@@ -33524,7 +33524,7 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21:W21"/>
+      <selection activeCell="G9" sqref="G9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33561,35 +33561,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="160"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174"/>
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="174"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
@@ -33636,13 +33636,13 @@
       <c r="I3" s="152"/>
       <c r="J3" s="152"/>
       <c r="K3" s="152"/>
-      <c r="L3" s="190" t="s">
+      <c r="L3" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="190"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
       <c r="Q3" s="152"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -33705,22 +33705,22 @@
       <c r="N5" s="152"/>
       <c r="O5" s="152"/>
       <c r="P5" s="152"/>
-      <c r="Q5" s="191" t="s">
+      <c r="Q5" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="160"/>
-      <c r="S5" s="160"/>
-      <c r="T5" s="160"/>
+      <c r="R5" s="174"/>
+      <c r="S5" s="174"/>
+      <c r="T5" s="174"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="192">
+      <c r="V5" s="203">
         <f>original!V5</f>
         <v>0</v>
       </c>
-      <c r="W5" s="160"/>
-      <c r="X5" s="160"/>
-      <c r="Y5" s="160"/>
-      <c r="Z5" s="160"/>
-      <c r="AA5" s="160"/>
+      <c r="W5" s="174"/>
+      <c r="X5" s="174"/>
+      <c r="Y5" s="174"/>
+      <c r="Z5" s="174"/>
+      <c r="AA5" s="174"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="1"/>
     </row>
@@ -33741,22 +33741,22 @@
       <c r="N6" s="152"/>
       <c r="O6" s="152"/>
       <c r="P6" s="152"/>
-      <c r="Q6" s="191" t="s">
+      <c r="Q6" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="160"/>
-      <c r="S6" s="160"/>
-      <c r="T6" s="160"/>
+      <c r="R6" s="174"/>
+      <c r="S6" s="174"/>
+      <c r="T6" s="174"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="193">
+      <c r="V6" s="204">
         <f>original!V6</f>
         <v>0</v>
       </c>
-      <c r="W6" s="160"/>
-      <c r="X6" s="160"/>
-      <c r="Y6" s="160"/>
-      <c r="Z6" s="160"/>
-      <c r="AA6" s="160"/>
+      <c r="W6" s="174"/>
+      <c r="X6" s="174"/>
+      <c r="Y6" s="174"/>
+      <c r="Z6" s="174"/>
+      <c r="AA6" s="174"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="1"/>
     </row>
@@ -33777,10 +33777,10 @@
       <c r="N7" s="152"/>
       <c r="O7" s="152"/>
       <c r="P7" s="152"/>
-      <c r="Q7" s="160"/>
-      <c r="R7" s="160"/>
-      <c r="S7" s="160"/>
-      <c r="T7" s="160"/>
+      <c r="Q7" s="174"/>
+      <c r="R7" s="174"/>
+      <c r="S7" s="174"/>
+      <c r="T7" s="174"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -33822,44 +33822,44 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="186" t="s">
+      <c r="B9" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="295"/>
-      <c r="D9" s="295"/>
-      <c r="E9" s="295"/>
-      <c r="F9" s="295"/>
-      <c r="G9" s="187">
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="238"/>
+      <c r="F9" s="238"/>
+      <c r="G9" s="206">
         <f>original!G9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
-      <c r="J9" s="187"/>
-      <c r="K9" s="187"/>
-      <c r="L9" s="316"/>
-      <c r="M9" s="186" t="s">
+      <c r="H9" s="206"/>
+      <c r="I9" s="206"/>
+      <c r="J9" s="206"/>
+      <c r="K9" s="206"/>
+      <c r="L9" s="239"/>
+      <c r="M9" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="170"/>
-      <c r="R9" s="187">
+      <c r="N9" s="179"/>
+      <c r="O9" s="179"/>
+      <c r="P9" s="179"/>
+      <c r="Q9" s="179"/>
+      <c r="R9" s="206">
         <f>original!R9</f>
         <v>0</v>
       </c>
-      <c r="S9" s="170"/>
-      <c r="T9" s="170"/>
-      <c r="U9" s="170"/>
-      <c r="V9" s="170"/>
-      <c r="W9" s="170"/>
-      <c r="X9" s="170"/>
-      <c r="Y9" s="170"/>
-      <c r="Z9" s="170"/>
-      <c r="AA9" s="188"/>
+      <c r="S9" s="179"/>
+      <c r="T9" s="179"/>
+      <c r="U9" s="179"/>
+      <c r="V9" s="179"/>
+      <c r="W9" s="179"/>
+      <c r="X9" s="179"/>
+      <c r="Y9" s="179"/>
+      <c r="Z9" s="179"/>
+      <c r="AA9" s="180"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
@@ -33896,165 +33896,165 @@
     </row>
     <row r="11" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="174" t="s">
+      <c r="B11" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="160"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="310">
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="240">
         <f>original!G11</f>
         <v>0</v>
       </c>
-      <c r="H11" s="310"/>
-      <c r="I11" s="310"/>
-      <c r="J11" s="310"/>
-      <c r="K11" s="310"/>
-      <c r="L11" s="311"/>
-      <c r="M11" s="174" t="s">
+      <c r="H11" s="240"/>
+      <c r="I11" s="240"/>
+      <c r="J11" s="240"/>
+      <c r="K11" s="240"/>
+      <c r="L11" s="241"/>
+      <c r="M11" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="160"/>
-      <c r="O11" s="160"/>
-      <c r="P11" s="160"/>
-      <c r="Q11" s="160"/>
-      <c r="R11" s="176">
+      <c r="N11" s="174"/>
+      <c r="O11" s="174"/>
+      <c r="P11" s="174"/>
+      <c r="Q11" s="174"/>
+      <c r="R11" s="208">
         <f>original!R11</f>
         <v>0</v>
       </c>
-      <c r="S11" s="160"/>
-      <c r="T11" s="160"/>
-      <c r="U11" s="160"/>
-      <c r="V11" s="160"/>
-      <c r="W11" s="160"/>
-      <c r="X11" s="160"/>
-      <c r="Y11" s="160"/>
-      <c r="Z11" s="160"/>
-      <c r="AA11" s="164"/>
+      <c r="S11" s="174"/>
+      <c r="T11" s="174"/>
+      <c r="U11" s="174"/>
+      <c r="V11" s="174"/>
+      <c r="W11" s="174"/>
+      <c r="X11" s="174"/>
+      <c r="Y11" s="174"/>
+      <c r="Z11" s="174"/>
+      <c r="AA11" s="175"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="174" t="s">
+      <c r="B12" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="160"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="310">
+      <c r="C12" s="174"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="240">
         <f>original!G12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="310"/>
-      <c r="I12" s="310"/>
-      <c r="J12" s="310"/>
-      <c r="K12" s="310"/>
-      <c r="L12" s="311"/>
-      <c r="M12" s="174" t="s">
+      <c r="H12" s="240"/>
+      <c r="I12" s="240"/>
+      <c r="J12" s="240"/>
+      <c r="K12" s="240"/>
+      <c r="L12" s="241"/>
+      <c r="M12" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="160"/>
-      <c r="O12" s="160"/>
-      <c r="P12" s="160"/>
-      <c r="Q12" s="160"/>
-      <c r="R12" s="176">
+      <c r="N12" s="174"/>
+      <c r="O12" s="174"/>
+      <c r="P12" s="174"/>
+      <c r="Q12" s="174"/>
+      <c r="R12" s="208">
         <f>original!R12</f>
         <v>0</v>
       </c>
-      <c r="S12" s="160"/>
-      <c r="T12" s="160"/>
-      <c r="U12" s="160"/>
-      <c r="V12" s="160"/>
-      <c r="W12" s="160"/>
-      <c r="X12" s="160"/>
-      <c r="Y12" s="160"/>
-      <c r="Z12" s="160"/>
-      <c r="AA12" s="164"/>
+      <c r="S12" s="174"/>
+      <c r="T12" s="174"/>
+      <c r="U12" s="174"/>
+      <c r="V12" s="174"/>
+      <c r="W12" s="174"/>
+      <c r="X12" s="174"/>
+      <c r="Y12" s="174"/>
+      <c r="Z12" s="174"/>
+      <c r="AA12" s="175"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="174" t="s">
+      <c r="B13" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="310">
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="240">
         <f>original!G13</f>
         <v>0</v>
       </c>
-      <c r="H13" s="310"/>
-      <c r="I13" s="310"/>
-      <c r="J13" s="310"/>
-      <c r="K13" s="310"/>
-      <c r="L13" s="311"/>
-      <c r="M13" s="174" t="s">
+      <c r="H13" s="240"/>
+      <c r="I13" s="240"/>
+      <c r="J13" s="240"/>
+      <c r="K13" s="240"/>
+      <c r="L13" s="241"/>
+      <c r="M13" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="160"/>
-      <c r="O13" s="160"/>
-      <c r="P13" s="160"/>
-      <c r="Q13" s="160"/>
-      <c r="R13" s="176">
+      <c r="N13" s="174"/>
+      <c r="O13" s="174"/>
+      <c r="P13" s="174"/>
+      <c r="Q13" s="174"/>
+      <c r="R13" s="208">
         <f>original!R13</f>
         <v>0</v>
       </c>
-      <c r="S13" s="160"/>
-      <c r="T13" s="160"/>
-      <c r="U13" s="160"/>
-      <c r="V13" s="160"/>
-      <c r="W13" s="160"/>
-      <c r="X13" s="160"/>
-      <c r="Y13" s="160"/>
-      <c r="Z13" s="160"/>
-      <c r="AA13" s="164"/>
+      <c r="S13" s="174"/>
+      <c r="T13" s="174"/>
+      <c r="U13" s="174"/>
+      <c r="V13" s="174"/>
+      <c r="W13" s="174"/>
+      <c r="X13" s="174"/>
+      <c r="Y13" s="174"/>
+      <c r="Z13" s="174"/>
+      <c r="AA13" s="175"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="174" t="s">
+      <c r="B14" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="314">
+      <c r="C14" s="174"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="242">
         <f>original!G14</f>
         <v>0</v>
       </c>
-      <c r="H14" s="314"/>
-      <c r="I14" s="314"/>
-      <c r="J14" s="314"/>
-      <c r="K14" s="314"/>
-      <c r="L14" s="315"/>
-      <c r="M14" s="174" t="s">
+      <c r="H14" s="242"/>
+      <c r="I14" s="242"/>
+      <c r="J14" s="242"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="243"/>
+      <c r="M14" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="160"/>
-      <c r="O14" s="160"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="160"/>
-      <c r="R14" s="184">
+      <c r="N14" s="174"/>
+      <c r="O14" s="174"/>
+      <c r="P14" s="174"/>
+      <c r="Q14" s="174"/>
+      <c r="R14" s="209">
         <f>original!R14</f>
         <v>0</v>
       </c>
-      <c r="S14" s="160"/>
-      <c r="T14" s="160"/>
-      <c r="U14" s="160"/>
-      <c r="V14" s="160"/>
-      <c r="W14" s="160"/>
-      <c r="X14" s="160"/>
-      <c r="Y14" s="160"/>
-      <c r="Z14" s="160"/>
-      <c r="AA14" s="164"/>
+      <c r="S14" s="174"/>
+      <c r="T14" s="174"/>
+      <c r="U14" s="174"/>
+      <c r="V14" s="174"/>
+      <c r="W14" s="174"/>
+      <c r="X14" s="174"/>
+      <c r="Y14" s="174"/>
+      <c r="Z14" s="174"/>
+      <c r="AA14" s="175"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
@@ -34091,83 +34091,83 @@
     </row>
     <row r="16" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="174" t="s">
+      <c r="B16" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="160"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="312">
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="244">
         <f>original!G16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="312"/>
-      <c r="I16" s="312"/>
-      <c r="J16" s="312"/>
-      <c r="K16" s="312"/>
-      <c r="L16" s="313"/>
-      <c r="M16" s="174" t="s">
+      <c r="H16" s="244"/>
+      <c r="I16" s="244"/>
+      <c r="J16" s="244"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="245"/>
+      <c r="M16" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="160"/>
-      <c r="O16" s="160"/>
-      <c r="P16" s="160"/>
-      <c r="Q16" s="160"/>
-      <c r="R16" s="184">
+      <c r="N16" s="174"/>
+      <c r="O16" s="174"/>
+      <c r="P16" s="174"/>
+      <c r="Q16" s="174"/>
+      <c r="R16" s="209">
         <f>original!R16</f>
         <v>0</v>
       </c>
-      <c r="S16" s="160"/>
-      <c r="T16" s="160"/>
-      <c r="U16" s="160"/>
-      <c r="V16" s="160"/>
-      <c r="W16" s="160"/>
-      <c r="X16" s="160"/>
-      <c r="Y16" s="160"/>
-      <c r="Z16" s="160"/>
-      <c r="AA16" s="164"/>
+      <c r="S16" s="174"/>
+      <c r="T16" s="174"/>
+      <c r="U16" s="174"/>
+      <c r="V16" s="174"/>
+      <c r="W16" s="174"/>
+      <c r="X16" s="174"/>
+      <c r="Y16" s="174"/>
+      <c r="Z16" s="174"/>
+      <c r="AA16" s="175"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="174" t="s">
+      <c r="B17" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="160"/>
-      <c r="D17" s="160"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="310">
+      <c r="C17" s="174"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="240">
         <f>original!G17</f>
         <v>0</v>
       </c>
-      <c r="H17" s="310"/>
-      <c r="I17" s="310"/>
-      <c r="J17" s="310"/>
-      <c r="K17" s="310"/>
-      <c r="L17" s="311"/>
-      <c r="M17" s="174" t="s">
+      <c r="H17" s="240"/>
+      <c r="I17" s="240"/>
+      <c r="J17" s="240"/>
+      <c r="K17" s="240"/>
+      <c r="L17" s="241"/>
+      <c r="M17" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="160"/>
-      <c r="O17" s="160"/>
-      <c r="P17" s="160"/>
-      <c r="Q17" s="160"/>
-      <c r="R17" s="175">
+      <c r="N17" s="174"/>
+      <c r="O17" s="174"/>
+      <c r="P17" s="174"/>
+      <c r="Q17" s="174"/>
+      <c r="R17" s="211">
         <f>original!R17</f>
         <v>0</v>
       </c>
-      <c r="S17" s="160"/>
-      <c r="T17" s="160"/>
-      <c r="U17" s="160"/>
-      <c r="V17" s="160"/>
-      <c r="W17" s="160"/>
-      <c r="X17" s="160"/>
-      <c r="Y17" s="160"/>
-      <c r="Z17" s="160"/>
-      <c r="AA17" s="164"/>
+      <c r="S17" s="174"/>
+      <c r="T17" s="174"/>
+      <c r="U17" s="174"/>
+      <c r="V17" s="174"/>
+      <c r="W17" s="174"/>
+      <c r="X17" s="174"/>
+      <c r="Y17" s="174"/>
+      <c r="Z17" s="174"/>
+      <c r="AA17" s="175"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
@@ -34238,41 +34238,41 @@
       <c r="B20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="177" t="s">
+      <c r="C20" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="178"/>
-      <c r="L20" s="178"/>
-      <c r="M20" s="177" t="s">
+      <c r="D20" s="166"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="296"/>
-      <c r="O20" s="296"/>
-      <c r="P20" s="297"/>
-      <c r="Q20" s="180" t="s">
+      <c r="N20" s="213"/>
+      <c r="O20" s="213"/>
+      <c r="P20" s="214"/>
+      <c r="Q20" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="R20" s="181"/>
-      <c r="S20" s="182"/>
-      <c r="T20" s="180" t="s">
+      <c r="R20" s="216"/>
+      <c r="S20" s="217"/>
+      <c r="T20" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="U20" s="181"/>
-      <c r="V20" s="181"/>
-      <c r="W20" s="182"/>
-      <c r="X20" s="183" t="s">
+      <c r="U20" s="216"/>
+      <c r="V20" s="216"/>
+      <c r="W20" s="217"/>
+      <c r="X20" s="218" t="s">
         <v>17</v>
       </c>
-      <c r="Y20" s="181"/>
-      <c r="Z20" s="181"/>
-      <c r="AA20" s="182"/>
+      <c r="Y20" s="216"/>
+      <c r="Z20" s="216"/>
+      <c r="AA20" s="217"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
@@ -34281,44 +34281,44 @@
       <c r="B21" s="20">
         <v>1</v>
       </c>
-      <c r="C21" s="210">
+      <c r="C21" s="169">
         <f>original!C21</f>
         <v>0</v>
       </c>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="178"/>
-      <c r="L21" s="178"/>
-      <c r="M21" s="201" t="s">
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="166"/>
+      <c r="L21" s="166"/>
+      <c r="M21" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="300"/>
-      <c r="O21" s="300"/>
-      <c r="P21" s="301"/>
-      <c r="Q21" s="211">
+      <c r="N21" s="171"/>
+      <c r="O21" s="171"/>
+      <c r="P21" s="172"/>
+      <c r="Q21" s="173">
         <v>1</v>
       </c>
-      <c r="R21" s="160"/>
-      <c r="S21" s="164"/>
-      <c r="T21" s="212">
+      <c r="R21" s="174"/>
+      <c r="S21" s="175"/>
+      <c r="T21" s="176">
         <f>original!T21</f>
         <v>0</v>
       </c>
-      <c r="U21" s="160"/>
-      <c r="V21" s="160"/>
-      <c r="W21" s="164"/>
-      <c r="X21" s="213">
+      <c r="U21" s="174"/>
+      <c r="V21" s="174"/>
+      <c r="W21" s="175"/>
+      <c r="X21" s="177">
         <f>T21</f>
         <v>0</v>
       </c>
-      <c r="Y21" s="160"/>
-      <c r="Z21" s="160"/>
-      <c r="AA21" s="164"/>
+      <c r="Y21" s="174"/>
+      <c r="Z21" s="174"/>
+      <c r="AA21" s="175"/>
       <c r="AB21" s="19"/>
       <c r="AC21" s="19"/>
     </row>
@@ -34327,36 +34327,36 @@
       <c r="B22" s="21">
         <v>2</v>
       </c>
-      <c r="C22" s="214" t="s">
+      <c r="C22" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="215">
+      <c r="D22" s="166"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="167">
         <f>original!I22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="215"/>
-      <c r="K22" s="215"/>
-      <c r="L22" s="320"/>
-      <c r="M22" s="201"/>
-      <c r="N22" s="300"/>
-      <c r="O22" s="300"/>
-      <c r="P22" s="301"/>
-      <c r="Q22" s="202"/>
-      <c r="R22" s="170"/>
-      <c r="S22" s="188"/>
-      <c r="T22" s="202"/>
-      <c r="U22" s="170"/>
-      <c r="V22" s="170"/>
-      <c r="W22" s="188"/>
-      <c r="X22" s="202"/>
-      <c r="Y22" s="170"/>
-      <c r="Z22" s="170"/>
-      <c r="AA22" s="188"/>
+      <c r="J22" s="167"/>
+      <c r="K22" s="167"/>
+      <c r="L22" s="232"/>
+      <c r="M22" s="170"/>
+      <c r="N22" s="171"/>
+      <c r="O22" s="171"/>
+      <c r="P22" s="172"/>
+      <c r="Q22" s="182"/>
+      <c r="R22" s="179"/>
+      <c r="S22" s="180"/>
+      <c r="T22" s="182"/>
+      <c r="U22" s="179"/>
+      <c r="V22" s="179"/>
+      <c r="W22" s="180"/>
+      <c r="X22" s="182"/>
+      <c r="Y22" s="179"/>
+      <c r="Z22" s="179"/>
+      <c r="AA22" s="180"/>
       <c r="AB22" s="19"/>
       <c r="AC22" s="19"/>
     </row>
@@ -34365,32 +34365,32 @@
       <c r="B23" s="22">
         <v>3</v>
       </c>
-      <c r="C23" s="207" t="s">
+      <c r="C23" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="208">
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="189">
         <f>original!H23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="208"/>
-      <c r="J23" s="208"/>
-      <c r="K23" s="208"/>
-      <c r="L23" s="319"/>
-      <c r="M23" s="209"/>
-      <c r="N23" s="298"/>
-      <c r="O23" s="298"/>
-      <c r="P23" s="299"/>
-      <c r="Q23" s="209"/>
-      <c r="R23" s="178"/>
-      <c r="S23" s="179"/>
-      <c r="T23" s="209"/>
-      <c r="U23" s="178"/>
-      <c r="V23" s="178"/>
-      <c r="W23" s="179"/>
+      <c r="I23" s="189"/>
+      <c r="J23" s="189"/>
+      <c r="K23" s="189"/>
+      <c r="L23" s="233"/>
+      <c r="M23" s="190"/>
+      <c r="N23" s="191"/>
+      <c r="O23" s="191"/>
+      <c r="P23" s="192"/>
+      <c r="Q23" s="190"/>
+      <c r="R23" s="166"/>
+      <c r="S23" s="185"/>
+      <c r="T23" s="190"/>
+      <c r="U23" s="166"/>
+      <c r="V23" s="166"/>
+      <c r="W23" s="185"/>
       <c r="X23" s="23"/>
       <c r="Y23" s="23"/>
       <c r="Z23" s="23"/>
@@ -34407,35 +34407,35 @@
       <c r="D24" s="152"/>
       <c r="E24" s="152"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="203">
+      <c r="G24" s="183">
         <f>original!G24</f>
         <v>0</v>
       </c>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="160"/>
-      <c r="K24" s="160"/>
-      <c r="L24" s="160"/>
-      <c r="M24" s="160"/>
-      <c r="N24" s="160"/>
-      <c r="O24" s="160"/>
-      <c r="P24" s="160"/>
-      <c r="Q24" s="204" t="s">
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="174"/>
+      <c r="L24" s="174"/>
+      <c r="M24" s="174"/>
+      <c r="N24" s="174"/>
+      <c r="O24" s="174"/>
+      <c r="P24" s="174"/>
+      <c r="Q24" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="R24" s="178"/>
-      <c r="S24" s="178"/>
-      <c r="T24" s="178"/>
-      <c r="U24" s="178"/>
-      <c r="V24" s="178"/>
-      <c r="W24" s="179"/>
-      <c r="X24" s="205">
+      <c r="R24" s="166"/>
+      <c r="S24" s="166"/>
+      <c r="T24" s="166"/>
+      <c r="U24" s="166"/>
+      <c r="V24" s="166"/>
+      <c r="W24" s="185"/>
+      <c r="X24" s="186">
         <f>original!X24</f>
         <v>0</v>
       </c>
-      <c r="Y24" s="178"/>
-      <c r="Z24" s="178"/>
-      <c r="AA24" s="179"/>
+      <c r="Y24" s="166"/>
+      <c r="Z24" s="166"/>
+      <c r="AA24" s="185"/>
       <c r="AB24" s="26"/>
       <c r="AC24" s="26"/>
     </row>
@@ -34446,32 +34446,32 @@
       <c r="D25" s="152"/>
       <c r="E25" s="152"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="160"/>
-      <c r="K25" s="160"/>
-      <c r="L25" s="160"/>
-      <c r="M25" s="160"/>
-      <c r="N25" s="160"/>
-      <c r="O25" s="160"/>
-      <c r="P25" s="160"/>
-      <c r="Q25" s="204" t="s">
+      <c r="G25" s="174"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="174"/>
+      <c r="K25" s="174"/>
+      <c r="L25" s="174"/>
+      <c r="M25" s="174"/>
+      <c r="N25" s="174"/>
+      <c r="O25" s="174"/>
+      <c r="P25" s="174"/>
+      <c r="Q25" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="R25" s="178"/>
-      <c r="S25" s="178"/>
-      <c r="T25" s="178"/>
-      <c r="U25" s="178"/>
-      <c r="V25" s="178"/>
-      <c r="W25" s="179"/>
-      <c r="X25" s="206">
+      <c r="R25" s="166"/>
+      <c r="S25" s="166"/>
+      <c r="T25" s="166"/>
+      <c r="U25" s="166"/>
+      <c r="V25" s="166"/>
+      <c r="W25" s="185"/>
+      <c r="X25" s="187">
         <f>original!X25</f>
         <v>0</v>
       </c>
-      <c r="Y25" s="178"/>
-      <c r="Z25" s="178"/>
-      <c r="AA25" s="179"/>
+      <c r="Y25" s="166"/>
+      <c r="Z25" s="166"/>
+      <c r="AA25" s="185"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
@@ -34482,32 +34482,32 @@
       <c r="D26" s="152"/>
       <c r="E26" s="152"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="160"/>
-      <c r="K26" s="160"/>
-      <c r="L26" s="160"/>
-      <c r="M26" s="160"/>
-      <c r="N26" s="160"/>
-      <c r="O26" s="160"/>
-      <c r="P26" s="160"/>
-      <c r="Q26" s="199" t="s">
+      <c r="G26" s="174"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="174"/>
+      <c r="K26" s="174"/>
+      <c r="L26" s="174"/>
+      <c r="M26" s="174"/>
+      <c r="N26" s="174"/>
+      <c r="O26" s="174"/>
+      <c r="P26" s="174"/>
+      <c r="Q26" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="R26" s="170"/>
-      <c r="S26" s="170"/>
-      <c r="T26" s="170"/>
-      <c r="U26" s="170"/>
-      <c r="V26" s="170"/>
-      <c r="W26" s="188"/>
-      <c r="X26" s="200">
+      <c r="R26" s="179"/>
+      <c r="S26" s="179"/>
+      <c r="T26" s="179"/>
+      <c r="U26" s="179"/>
+      <c r="V26" s="179"/>
+      <c r="W26" s="180"/>
+      <c r="X26" s="181">
         <f>original!X26</f>
         <v>0</v>
       </c>
-      <c r="Y26" s="170"/>
-      <c r="Z26" s="170"/>
-      <c r="AA26" s="188"/>
+      <c r="Y26" s="179"/>
+      <c r="Z26" s="179"/>
+      <c r="AA26" s="180"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
@@ -34521,111 +34521,111 @@
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
-      <c r="H27" s="194">
+      <c r="H27" s="195">
         <f>original!H27</f>
         <v>0</v>
       </c>
-      <c r="I27" s="178"/>
-      <c r="J27" s="178"/>
-      <c r="K27" s="178"/>
-      <c r="L27" s="178"/>
-      <c r="M27" s="178"/>
-      <c r="N27" s="178"/>
-      <c r="O27" s="178"/>
-      <c r="P27" s="178"/>
-      <c r="Q27" s="178"/>
-      <c r="R27" s="178"/>
-      <c r="S27" s="178"/>
-      <c r="T27" s="178"/>
-      <c r="U27" s="178"/>
-      <c r="V27" s="178"/>
-      <c r="W27" s="178"/>
-      <c r="X27" s="178"/>
-      <c r="Y27" s="178"/>
-      <c r="Z27" s="178"/>
-      <c r="AA27" s="179"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
+      <c r="K27" s="166"/>
+      <c r="L27" s="166"/>
+      <c r="M27" s="166"/>
+      <c r="N27" s="166"/>
+      <c r="O27" s="166"/>
+      <c r="P27" s="166"/>
+      <c r="Q27" s="166"/>
+      <c r="R27" s="166"/>
+      <c r="S27" s="166"/>
+      <c r="T27" s="166"/>
+      <c r="U27" s="166"/>
+      <c r="V27" s="166"/>
+      <c r="W27" s="166"/>
+      <c r="X27" s="166"/>
+      <c r="Y27" s="166"/>
+      <c r="Z27" s="166"/>
+      <c r="AA27" s="185"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
     <row r="28" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="161" t="s">
+      <c r="B28" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="317">
+      <c r="C28" s="174"/>
+      <c r="D28" s="174"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="234">
         <f>original!J28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="317"/>
-      <c r="L28" s="318"/>
-      <c r="M28" s="196" t="s">
+      <c r="K28" s="234"/>
+      <c r="L28" s="235"/>
+      <c r="M28" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="N28" s="170"/>
-      <c r="O28" s="170"/>
-      <c r="P28" s="170"/>
-      <c r="Q28" s="170"/>
-      <c r="R28" s="197">
+      <c r="N28" s="179"/>
+      <c r="O28" s="179"/>
+      <c r="P28" s="179"/>
+      <c r="Q28" s="179"/>
+      <c r="R28" s="198">
         <f>original!R28</f>
         <v>0</v>
       </c>
-      <c r="S28" s="160"/>
-      <c r="T28" s="160"/>
-      <c r="U28" s="160"/>
-      <c r="V28" s="160"/>
-      <c r="W28" s="160"/>
-      <c r="X28" s="160"/>
-      <c r="Y28" s="160"/>
-      <c r="Z28" s="160"/>
-      <c r="AA28" s="164"/>
+      <c r="S28" s="174"/>
+      <c r="T28" s="174"/>
+      <c r="U28" s="174"/>
+      <c r="V28" s="174"/>
+      <c r="W28" s="174"/>
+      <c r="X28" s="174"/>
+      <c r="Y28" s="174"/>
+      <c r="Z28" s="174"/>
+      <c r="AA28" s="175"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
     <row r="29" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="198" t="s">
+      <c r="B29" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="307">
+      <c r="C29" s="174"/>
+      <c r="D29" s="174"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="236">
         <f>original!J29</f>
         <v>0</v>
       </c>
-      <c r="K29" s="307"/>
-      <c r="L29" s="308"/>
-      <c r="M29" s="161" t="s">
+      <c r="K29" s="236"/>
+      <c r="L29" s="237"/>
+      <c r="M29" s="193" t="s">
         <v>29</v>
       </c>
-      <c r="N29" s="160"/>
-      <c r="O29" s="160"/>
-      <c r="P29" s="160"/>
-      <c r="Q29" s="160"/>
-      <c r="R29" s="163">
+      <c r="N29" s="174"/>
+      <c r="O29" s="174"/>
+      <c r="P29" s="174"/>
+      <c r="Q29" s="174"/>
+      <c r="R29" s="194">
         <f>original!R29</f>
         <v>0</v>
       </c>
-      <c r="S29" s="160"/>
-      <c r="T29" s="160"/>
-      <c r="U29" s="160"/>
-      <c r="V29" s="160"/>
-      <c r="W29" s="160"/>
-      <c r="X29" s="160"/>
-      <c r="Y29" s="160"/>
-      <c r="Z29" s="160"/>
-      <c r="AA29" s="164"/>
+      <c r="S29" s="174"/>
+      <c r="T29" s="174"/>
+      <c r="U29" s="174"/>
+      <c r="V29" s="174"/>
+      <c r="W29" s="174"/>
+      <c r="X29" s="174"/>
+      <c r="Y29" s="174"/>
+      <c r="Z29" s="174"/>
+      <c r="AA29" s="175"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
@@ -34662,42 +34662,42 @@
     </row>
     <row r="31" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="161" t="s">
+      <c r="B31" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="160"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="307">
+      <c r="C31" s="174"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="236">
         <f>original!J31</f>
         <v>0</v>
       </c>
-      <c r="K31" s="307"/>
-      <c r="L31" s="308"/>
-      <c r="M31" s="161" t="s">
+      <c r="K31" s="236"/>
+      <c r="L31" s="237"/>
+      <c r="M31" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="N31" s="160"/>
-      <c r="O31" s="160"/>
-      <c r="P31" s="160"/>
-      <c r="Q31" s="160"/>
-      <c r="R31" s="163">
+      <c r="N31" s="174"/>
+      <c r="O31" s="174"/>
+      <c r="P31" s="174"/>
+      <c r="Q31" s="174"/>
+      <c r="R31" s="194">
         <f>original!R31</f>
         <v>0</v>
       </c>
-      <c r="S31" s="160"/>
-      <c r="T31" s="160"/>
-      <c r="U31" s="160"/>
-      <c r="V31" s="160"/>
-      <c r="W31" s="160"/>
-      <c r="X31" s="160"/>
-      <c r="Y31" s="160"/>
-      <c r="Z31" s="160"/>
-      <c r="AA31" s="164"/>
+      <c r="S31" s="174"/>
+      <c r="T31" s="174"/>
+      <c r="U31" s="174"/>
+      <c r="V31" s="174"/>
+      <c r="W31" s="174"/>
+      <c r="X31" s="174"/>
+      <c r="Y31" s="174"/>
+      <c r="Z31" s="174"/>
+      <c r="AA31" s="175"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
@@ -34734,41 +34734,41 @@
     </row>
     <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="168" t="s">
+      <c r="B33" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="305" t="s">
+      <c r="C33" s="220"/>
+      <c r="D33" s="220"/>
+      <c r="E33" s="220"/>
+      <c r="F33" s="220"/>
+      <c r="G33" s="220"/>
+      <c r="H33" s="220"/>
+      <c r="I33" s="220"/>
+      <c r="J33" s="247" t="s">
         <v>33</v>
       </c>
-      <c r="K33" s="305"/>
-      <c r="L33" s="306"/>
-      <c r="M33" s="166" t="s">
+      <c r="K33" s="247"/>
+      <c r="L33" s="248"/>
+      <c r="M33" s="225" t="s">
         <v>34</v>
       </c>
-      <c r="N33" s="156"/>
-      <c r="O33" s="156"/>
-      <c r="P33" s="156"/>
-      <c r="Q33" s="156"/>
-      <c r="R33" s="167">
+      <c r="N33" s="220"/>
+      <c r="O33" s="220"/>
+      <c r="P33" s="220"/>
+      <c r="Q33" s="220"/>
+      <c r="R33" s="226">
         <f>original!R33</f>
         <v>0</v>
       </c>
-      <c r="S33" s="156"/>
-      <c r="T33" s="156"/>
-      <c r="U33" s="156"/>
-      <c r="V33" s="156"/>
-      <c r="W33" s="156"/>
-      <c r="X33" s="156"/>
-      <c r="Y33" s="156"/>
-      <c r="Z33" s="156"/>
-      <c r="AA33" s="158"/>
+      <c r="S33" s="220"/>
+      <c r="T33" s="220"/>
+      <c r="U33" s="220"/>
+      <c r="V33" s="220"/>
+      <c r="W33" s="220"/>
+      <c r="X33" s="220"/>
+      <c r="Y33" s="220"/>
+      <c r="Z33" s="220"/>
+      <c r="AA33" s="222"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
@@ -34809,42 +34809,42 @@
     </row>
     <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="37"/>
-      <c r="B35" s="169" t="s">
+      <c r="B35" s="228" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="170"/>
-      <c r="H35" s="170"/>
-      <c r="I35" s="171">
+      <c r="C35" s="179"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="179"/>
+      <c r="F35" s="179"/>
+      <c r="G35" s="179"/>
+      <c r="H35" s="179"/>
+      <c r="I35" s="229">
         <f>original!I35</f>
         <v>0</v>
       </c>
-      <c r="J35" s="171"/>
-      <c r="K35" s="171"/>
-      <c r="L35" s="302"/>
-      <c r="M35" s="172" t="s">
+      <c r="J35" s="229"/>
+      <c r="K35" s="229"/>
+      <c r="L35" s="249"/>
+      <c r="M35" s="230" t="s">
         <v>36</v>
       </c>
-      <c r="N35" s="170"/>
-      <c r="O35" s="170"/>
-      <c r="P35" s="170"/>
-      <c r="Q35" s="170"/>
-      <c r="R35" s="170"/>
-      <c r="S35" s="173">
+      <c r="N35" s="179"/>
+      <c r="O35" s="179"/>
+      <c r="P35" s="179"/>
+      <c r="Q35" s="179"/>
+      <c r="R35" s="179"/>
+      <c r="S35" s="231">
         <f>original!S35</f>
         <v>0</v>
       </c>
-      <c r="T35" s="160"/>
-      <c r="U35" s="160"/>
-      <c r="V35" s="160"/>
-      <c r="W35" s="160"/>
-      <c r="X35" s="160"/>
-      <c r="Y35" s="160"/>
-      <c r="Z35" s="160"/>
-      <c r="AA35" s="164"/>
+      <c r="T35" s="174"/>
+      <c r="U35" s="174"/>
+      <c r="V35" s="174"/>
+      <c r="W35" s="174"/>
+      <c r="X35" s="174"/>
+      <c r="Y35" s="174"/>
+      <c r="Z35" s="174"/>
+      <c r="AA35" s="175"/>
       <c r="AB35" s="37"/>
       <c r="AC35" s="37"/>
     </row>
@@ -34857,25 +34857,25 @@
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
-      <c r="I36" s="303"/>
-      <c r="J36" s="303"/>
-      <c r="K36" s="303"/>
-      <c r="L36" s="304"/>
+      <c r="I36" s="250"/>
+      <c r="J36" s="250"/>
+      <c r="K36" s="250"/>
+      <c r="L36" s="251"/>
       <c r="M36" s="25"/>
       <c r="N36" s="152"/>
       <c r="O36" s="39"/>
       <c r="P36" s="39"/>
       <c r="Q36" s="39"/>
       <c r="R36" s="39"/>
-      <c r="S36" s="160"/>
-      <c r="T36" s="160"/>
-      <c r="U36" s="160"/>
-      <c r="V36" s="160"/>
-      <c r="W36" s="160"/>
-      <c r="X36" s="160"/>
-      <c r="Y36" s="160"/>
-      <c r="Z36" s="160"/>
-      <c r="AA36" s="164"/>
+      <c r="S36" s="174"/>
+      <c r="T36" s="174"/>
+      <c r="U36" s="174"/>
+      <c r="V36" s="174"/>
+      <c r="W36" s="174"/>
+      <c r="X36" s="174"/>
+      <c r="Y36" s="174"/>
+      <c r="Z36" s="174"/>
+      <c r="AA36" s="175"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
     </row>
@@ -34886,10 +34886,10 @@
       <c r="D37" s="42"/>
       <c r="E37" s="42"/>
       <c r="F37" s="43"/>
-      <c r="G37" s="309"/>
-      <c r="H37" s="309"/>
-      <c r="I37" s="309"/>
-      <c r="J37" s="309"/>
+      <c r="G37" s="246"/>
+      <c r="H37" s="246"/>
+      <c r="I37" s="246"/>
+      <c r="J37" s="246"/>
       <c r="K37" s="43" t="s">
         <v>37</v>
       </c>
@@ -34904,13 +34904,13 @@
       <c r="T37" s="45"/>
       <c r="U37" s="45"/>
       <c r="V37" s="45"/>
-      <c r="W37" s="157" t="s">
+      <c r="W37" s="221" t="s">
         <v>37</v>
       </c>
-      <c r="X37" s="156"/>
-      <c r="Y37" s="156"/>
-      <c r="Z37" s="156"/>
-      <c r="AA37" s="158"/>
+      <c r="X37" s="220"/>
+      <c r="Y37" s="220"/>
+      <c r="Z37" s="220"/>
+      <c r="AA37" s="222"/>
       <c r="AB37" s="40"/>
       <c r="AC37" s="40"/>
     </row>
@@ -34947,34 +34947,34 @@
     </row>
     <row r="39" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
-      <c r="B39" s="159" t="s">
+      <c r="B39" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="160"/>
-      <c r="D39" s="160"/>
-      <c r="E39" s="160"/>
-      <c r="F39" s="160"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="160"/>
-      <c r="I39" s="160"/>
-      <c r="J39" s="160"/>
-      <c r="K39" s="160"/>
-      <c r="L39" s="160"/>
-      <c r="M39" s="160"/>
-      <c r="N39" s="160"/>
-      <c r="O39" s="160"/>
-      <c r="P39" s="160"/>
-      <c r="Q39" s="160"/>
-      <c r="R39" s="160"/>
-      <c r="S39" s="160"/>
-      <c r="T39" s="160"/>
-      <c r="U39" s="160"/>
-      <c r="V39" s="160"/>
-      <c r="W39" s="160"/>
-      <c r="X39" s="160"/>
-      <c r="Y39" s="160"/>
-      <c r="Z39" s="160"/>
-      <c r="AA39" s="160"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="174"/>
+      <c r="H39" s="174"/>
+      <c r="I39" s="174"/>
+      <c r="J39" s="174"/>
+      <c r="K39" s="174"/>
+      <c r="L39" s="174"/>
+      <c r="M39" s="174"/>
+      <c r="N39" s="174"/>
+      <c r="O39" s="174"/>
+      <c r="P39" s="174"/>
+      <c r="Q39" s="174"/>
+      <c r="R39" s="174"/>
+      <c r="S39" s="174"/>
+      <c r="T39" s="174"/>
+      <c r="U39" s="174"/>
+      <c r="V39" s="174"/>
+      <c r="W39" s="174"/>
+      <c r="X39" s="174"/>
+      <c r="Y39" s="174"/>
+      <c r="Z39" s="174"/>
+      <c r="AA39" s="174"/>
       <c r="AB39" s="46"/>
       <c r="AC39" s="46"/>
     </row>
@@ -64771,77 +64771,6 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="X21:AA21"/>
-    <mergeCell ref="Q26:W26"/>
-    <mergeCell ref="X26:AA26"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="G24:P26"/>
-    <mergeCell ref="Q24:W24"/>
-    <mergeCell ref="X24:AA24"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="X25:AA25"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="R29:AA29"/>
-    <mergeCell ref="H27:AA27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="R28:AA28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="V5:AA5"/>
-    <mergeCell ref="Q6:T7"/>
-    <mergeCell ref="V6:AA6"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="R9:AA9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="R11:AA11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="R12:AA12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="R13:AA13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="R14:AA14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="R16:AA16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="R17:AA17"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="X20:AA20"/>
     <mergeCell ref="G37:J37"/>
     <mergeCell ref="W37:AA37"/>
     <mergeCell ref="B39:AA39"/>
@@ -64857,6 +64786,77 @@
     <mergeCell ref="I35:L36"/>
     <mergeCell ref="M35:R35"/>
     <mergeCell ref="S35:AA36"/>
+    <mergeCell ref="R17:AA17"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="X20:AA20"/>
+    <mergeCell ref="R14:AA14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="R16:AA16"/>
+    <mergeCell ref="R12:AA12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="R13:AA13"/>
+    <mergeCell ref="R9:AA9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="R11:AA11"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="V5:AA5"/>
+    <mergeCell ref="Q6:T7"/>
+    <mergeCell ref="V6:AA6"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="R29:AA29"/>
+    <mergeCell ref="H27:AA27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="R28:AA28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="G24:P26"/>
+    <mergeCell ref="Q24:W24"/>
+    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="X25:AA25"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="X21:AA21"/>
+    <mergeCell ref="Q26:W26"/>
+    <mergeCell ref="X26:AA26"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B17:F17"/>
   </mergeCells>
   <conditionalFormatting sqref="G24:L26">
     <cfRule type="colorScale" priority="2">
@@ -64891,7 +64891,7 @@
   </sheetPr>
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -64938,37 +64938,37 @@
     </row>
     <row r="2" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A2" s="49"/>
-      <c r="B2" s="291"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="218"/>
+      <c r="B2" s="252"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="253"/>
+      <c r="G2" s="253"/>
+      <c r="H2" s="253"/>
+      <c r="I2" s="254"/>
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
       <c r="L2" s="55"/>
       <c r="M2" s="55"/>
       <c r="N2" s="56"/>
-      <c r="O2" s="292" t="s">
+      <c r="O2" s="255" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="259"/>
-      <c r="Q2" s="293"/>
-      <c r="R2" s="259"/>
+      <c r="P2" s="256"/>
+      <c r="Q2" s="257"/>
+      <c r="R2" s="256"/>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="49"/>
       <c r="B3" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="294"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="227"/>
+      <c r="C3" s="258"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="260"/>
       <c r="I3" s="58"/>
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
@@ -64982,14 +64982,14 @@
     </row>
     <row r="4" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="49"/>
-      <c r="B4" s="286"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="217"/>
-      <c r="I4" s="218"/>
+      <c r="B4" s="261"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="253"/>
+      <c r="F4" s="253"/>
+      <c r="G4" s="253"/>
+      <c r="H4" s="253"/>
+      <c r="I4" s="254"/>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
       <c r="L4" s="54"/>
@@ -65002,14 +65002,14 @@
     </row>
     <row r="5" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="49"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="217"/>
-      <c r="D5" s="217"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="218"/>
+      <c r="B5" s="261"/>
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="253"/>
+      <c r="H5" s="253"/>
+      <c r="I5" s="254"/>
       <c r="J5" s="59"/>
       <c r="K5" s="59"/>
       <c r="L5" s="54"/>
@@ -65022,22 +65022,22 @@
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.5">
       <c r="A6" s="49"/>
-      <c r="B6" s="289"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="258"/>
+      <c r="B6" s="264"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="174"/>
+      <c r="I6" s="265"/>
       <c r="J6" s="64"/>
       <c r="K6" s="64"/>
       <c r="L6" s="65"/>
       <c r="M6" s="66"/>
-      <c r="N6" s="287" t="s">
+      <c r="N6" s="262" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="288"/>
+      <c r="O6" s="263"/>
       <c r="P6" s="67"/>
       <c r="Q6" s="68"/>
       <c r="R6" s="68"/>
@@ -65054,7 +65054,7 @@
       <c r="I7" s="64"/>
       <c r="J7" s="64"/>
       <c r="K7" s="64"/>
-      <c r="L7" s="333"/>
+      <c r="L7" s="164"/>
       <c r="M7" s="69"/>
       <c r="N7" s="70"/>
       <c r="O7" s="70"/>
@@ -65105,12 +65105,12 @@
     <row r="10" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="49"/>
       <c r="B10" s="75"/>
-      <c r="C10" s="290"/>
-      <c r="D10" s="226"/>
-      <c r="E10" s="226"/>
-      <c r="F10" s="226"/>
-      <c r="G10" s="226"/>
-      <c r="H10" s="227"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="259"/>
+      <c r="E10" s="259"/>
+      <c r="F10" s="259"/>
+      <c r="G10" s="259"/>
+      <c r="H10" s="260"/>
       <c r="I10" s="49"/>
       <c r="J10" s="49"/>
       <c r="K10" s="76"/>
@@ -65125,12 +65125,12 @@
     <row r="11" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="49"/>
       <c r="B11" s="75"/>
-      <c r="C11" s="290"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="266"/>
+      <c r="D11" s="259"/>
+      <c r="E11" s="259"/>
+      <c r="F11" s="259"/>
+      <c r="G11" s="259"/>
+      <c r="H11" s="260"/>
       <c r="I11" s="49"/>
       <c r="J11" s="49"/>
       <c r="K11" s="76"/>
@@ -65145,52 +65145,52 @@
     <row r="12" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A12" s="49"/>
       <c r="B12" s="81"/>
-      <c r="C12" s="269"/>
-      <c r="D12" s="226"/>
-      <c r="E12" s="226"/>
-      <c r="F12" s="226"/>
-      <c r="G12" s="226"/>
-      <c r="H12" s="227"/>
+      <c r="C12" s="267"/>
+      <c r="D12" s="259"/>
+      <c r="E12" s="259"/>
+      <c r="F12" s="259"/>
+      <c r="G12" s="259"/>
+      <c r="H12" s="260"/>
       <c r="I12" s="82"/>
       <c r="J12" s="82"/>
       <c r="K12" s="82"/>
       <c r="L12" s="83"/>
       <c r="M12" s="84"/>
       <c r="N12" s="85"/>
-      <c r="O12" s="285"/>
-      <c r="P12" s="226"/>
-      <c r="Q12" s="227"/>
+      <c r="O12" s="268"/>
+      <c r="P12" s="259"/>
+      <c r="Q12" s="260"/>
       <c r="R12" s="53"/>
     </row>
     <row r="13" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A13" s="49"/>
       <c r="B13" s="81"/>
-      <c r="C13" s="269"/>
-      <c r="D13" s="226"/>
-      <c r="E13" s="226"/>
-      <c r="F13" s="226"/>
-      <c r="G13" s="226"/>
-      <c r="H13" s="227"/>
+      <c r="C13" s="267"/>
+      <c r="D13" s="259"/>
+      <c r="E13" s="259"/>
+      <c r="F13" s="259"/>
+      <c r="G13" s="259"/>
+      <c r="H13" s="260"/>
       <c r="I13" s="82"/>
       <c r="J13" s="82"/>
       <c r="K13" s="82"/>
       <c r="L13" s="86"/>
       <c r="M13" s="84"/>
       <c r="N13" s="85"/>
-      <c r="O13" s="269"/>
-      <c r="P13" s="226"/>
-      <c r="Q13" s="227"/>
+      <c r="O13" s="267"/>
+      <c r="P13" s="259"/>
+      <c r="Q13" s="260"/>
       <c r="R13" s="53"/>
     </row>
     <row r="14" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A14" s="49"/>
       <c r="B14" s="81"/>
-      <c r="C14" s="269"/>
-      <c r="D14" s="226"/>
-      <c r="E14" s="226"/>
-      <c r="F14" s="226"/>
-      <c r="G14" s="226"/>
-      <c r="H14" s="227"/>
+      <c r="C14" s="267"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="259"/>
+      <c r="F14" s="259"/>
+      <c r="G14" s="259"/>
+      <c r="H14" s="260"/>
       <c r="I14" s="82"/>
       <c r="J14" s="82"/>
       <c r="K14" s="82"/>
@@ -65205,12 +65205,12 @@
     <row r="15" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A15" s="49"/>
       <c r="B15" s="81"/>
-      <c r="C15" s="269"/>
-      <c r="D15" s="226"/>
-      <c r="E15" s="226"/>
-      <c r="F15" s="226"/>
-      <c r="G15" s="226"/>
-      <c r="H15" s="227"/>
+      <c r="C15" s="267"/>
+      <c r="D15" s="259"/>
+      <c r="E15" s="259"/>
+      <c r="F15" s="259"/>
+      <c r="G15" s="259"/>
+      <c r="H15" s="260"/>
       <c r="I15" s="82"/>
       <c r="J15" s="82"/>
       <c r="K15" s="82"/>
@@ -65225,12 +65225,12 @@
     <row r="16" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A16" s="49"/>
       <c r="B16" s="81"/>
-      <c r="C16" s="269"/>
-      <c r="D16" s="226"/>
-      <c r="E16" s="226"/>
-      <c r="F16" s="226"/>
-      <c r="G16" s="226"/>
-      <c r="H16" s="227"/>
+      <c r="C16" s="267"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="259"/>
+      <c r="F16" s="259"/>
+      <c r="G16" s="259"/>
+      <c r="H16" s="260"/>
       <c r="I16" s="82"/>
       <c r="J16" s="82"/>
       <c r="K16" s="82"/>
@@ -65247,23 +65247,23 @@
       <c r="B17" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="278"/>
-      <c r="D17" s="279"/>
-      <c r="E17" s="279"/>
-      <c r="F17" s="279"/>
-      <c r="G17" s="279"/>
-      <c r="H17" s="279"/>
-      <c r="I17" s="279"/>
-      <c r="J17" s="279"/>
-      <c r="K17" s="279"/>
-      <c r="L17" s="223"/>
+      <c r="C17" s="269"/>
+      <c r="D17" s="270"/>
+      <c r="E17" s="270"/>
+      <c r="F17" s="270"/>
+      <c r="G17" s="270"/>
+      <c r="H17" s="270"/>
+      <c r="I17" s="270"/>
+      <c r="J17" s="270"/>
+      <c r="K17" s="270"/>
+      <c r="L17" s="271"/>
       <c r="M17" s="88"/>
       <c r="N17" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="O17" s="283"/>
-      <c r="P17" s="253"/>
-      <c r="Q17" s="284"/>
+      <c r="O17" s="272"/>
+      <c r="P17" s="273"/>
+      <c r="Q17" s="274"/>
       <c r="R17" s="53"/>
     </row>
     <row r="18" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -65271,23 +65271,23 @@
       <c r="B18" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="278"/>
-      <c r="D18" s="279"/>
-      <c r="E18" s="279"/>
-      <c r="F18" s="279"/>
-      <c r="G18" s="279"/>
-      <c r="H18" s="279"/>
-      <c r="I18" s="279"/>
-      <c r="J18" s="279"/>
-      <c r="K18" s="279"/>
-      <c r="L18" s="223"/>
+      <c r="C18" s="269"/>
+      <c r="D18" s="270"/>
+      <c r="E18" s="270"/>
+      <c r="F18" s="270"/>
+      <c r="G18" s="270"/>
+      <c r="H18" s="270"/>
+      <c r="I18" s="270"/>
+      <c r="J18" s="270"/>
+      <c r="K18" s="270"/>
+      <c r="L18" s="271"/>
       <c r="M18" s="90"/>
       <c r="N18" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="O18" s="278"/>
-      <c r="P18" s="279"/>
-      <c r="Q18" s="223"/>
+      <c r="O18" s="269"/>
+      <c r="P18" s="270"/>
+      <c r="Q18" s="271"/>
       <c r="R18" s="53"/>
     </row>
     <row r="19" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -65295,16 +65295,16 @@
       <c r="B19" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="278"/>
-      <c r="D19" s="279"/>
-      <c r="E19" s="279"/>
-      <c r="F19" s="279"/>
-      <c r="G19" s="279"/>
-      <c r="H19" s="279"/>
-      <c r="I19" s="279"/>
-      <c r="J19" s="279"/>
-      <c r="K19" s="279"/>
-      <c r="L19" s="223"/>
+      <c r="C19" s="269"/>
+      <c r="D19" s="270"/>
+      <c r="E19" s="270"/>
+      <c r="F19" s="270"/>
+      <c r="G19" s="270"/>
+      <c r="H19" s="270"/>
+      <c r="I19" s="270"/>
+      <c r="J19" s="270"/>
+      <c r="K19" s="270"/>
+      <c r="L19" s="271"/>
       <c r="M19" s="92"/>
       <c r="N19" s="92"/>
       <c r="O19" s="92"/>
@@ -65315,16 +65315,16 @@
     <row r="20" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="49"/>
       <c r="B20" s="93"/>
-      <c r="C20" s="280"/>
-      <c r="D20" s="243"/>
-      <c r="E20" s="243"/>
-      <c r="F20" s="243"/>
-      <c r="G20" s="243"/>
-      <c r="H20" s="243"/>
-      <c r="I20" s="243"/>
-      <c r="J20" s="243"/>
-      <c r="K20" s="243"/>
-      <c r="L20" s="281"/>
+      <c r="C20" s="275"/>
+      <c r="D20" s="276"/>
+      <c r="E20" s="276"/>
+      <c r="F20" s="276"/>
+      <c r="G20" s="276"/>
+      <c r="H20" s="276"/>
+      <c r="I20" s="276"/>
+      <c r="J20" s="276"/>
+      <c r="K20" s="276"/>
+      <c r="L20" s="277"/>
       <c r="M20" s="92"/>
       <c r="N20" s="92"/>
       <c r="O20" s="92"/>
@@ -65337,16 +65337,16 @@
       <c r="B21" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="269"/>
-      <c r="D21" s="226"/>
-      <c r="E21" s="226"/>
-      <c r="F21" s="226"/>
-      <c r="G21" s="226"/>
-      <c r="H21" s="226"/>
-      <c r="I21" s="226"/>
-      <c r="J21" s="226"/>
-      <c r="K21" s="226"/>
-      <c r="L21" s="227"/>
+      <c r="C21" s="267"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="259"/>
+      <c r="F21" s="259"/>
+      <c r="G21" s="259"/>
+      <c r="H21" s="259"/>
+      <c r="I21" s="259"/>
+      <c r="J21" s="259"/>
+      <c r="K21" s="259"/>
+      <c r="L21" s="260"/>
       <c r="M21" s="92"/>
       <c r="N21" s="92"/>
       <c r="O21" s="92"/>
@@ -65358,32 +65358,32 @@
       <c r="A22" s="49"/>
       <c r="B22" s="94"/>
       <c r="C22" s="95"/>
-      <c r="D22" s="276"/>
-      <c r="E22" s="226"/>
-      <c r="F22" s="226"/>
-      <c r="G22" s="226"/>
-      <c r="H22" s="226"/>
-      <c r="I22" s="227"/>
-      <c r="J22" s="282"/>
-      <c r="K22" s="227"/>
-      <c r="L22" s="276"/>
-      <c r="M22" s="227"/>
-      <c r="N22" s="274"/>
-      <c r="O22" s="227"/>
-      <c r="P22" s="275"/>
-      <c r="Q22" s="227"/>
+      <c r="D22" s="279"/>
+      <c r="E22" s="259"/>
+      <c r="F22" s="259"/>
+      <c r="G22" s="259"/>
+      <c r="H22" s="259"/>
+      <c r="I22" s="260"/>
+      <c r="J22" s="278"/>
+      <c r="K22" s="260"/>
+      <c r="L22" s="279"/>
+      <c r="M22" s="260"/>
+      <c r="N22" s="280"/>
+      <c r="O22" s="260"/>
+      <c r="P22" s="281"/>
+      <c r="Q22" s="260"/>
       <c r="R22" s="53"/>
     </row>
     <row r="23" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="49"/>
       <c r="B23" s="96"/>
       <c r="C23" s="80"/>
-      <c r="D23" s="277"/>
-      <c r="E23" s="226"/>
-      <c r="F23" s="226"/>
-      <c r="G23" s="226"/>
-      <c r="H23" s="226"/>
-      <c r="I23" s="227"/>
+      <c r="D23" s="282"/>
+      <c r="E23" s="259"/>
+      <c r="F23" s="259"/>
+      <c r="G23" s="259"/>
+      <c r="H23" s="259"/>
+      <c r="I23" s="260"/>
       <c r="J23" s="97"/>
       <c r="K23" s="97"/>
       <c r="L23" s="84"/>
@@ -65398,12 +65398,12 @@
       <c r="A24" s="49"/>
       <c r="B24" s="96"/>
       <c r="C24" s="80"/>
-      <c r="D24" s="277"/>
-      <c r="E24" s="226"/>
-      <c r="F24" s="226"/>
-      <c r="G24" s="226"/>
-      <c r="H24" s="226"/>
-      <c r="I24" s="227"/>
+      <c r="D24" s="282"/>
+      <c r="E24" s="259"/>
+      <c r="F24" s="259"/>
+      <c r="G24" s="259"/>
+      <c r="H24" s="259"/>
+      <c r="I24" s="260"/>
       <c r="J24" s="97"/>
       <c r="K24" s="97"/>
       <c r="L24" s="84"/>
@@ -65418,32 +65418,32 @@
       <c r="A25" s="49"/>
       <c r="B25" s="101"/>
       <c r="C25" s="86"/>
-      <c r="D25" s="269"/>
-      <c r="E25" s="226"/>
-      <c r="F25" s="226"/>
-      <c r="G25" s="226"/>
-      <c r="H25" s="226"/>
-      <c r="I25" s="227"/>
-      <c r="J25" s="271"/>
-      <c r="K25" s="227"/>
-      <c r="L25" s="230"/>
-      <c r="M25" s="227"/>
-      <c r="N25" s="272"/>
-      <c r="O25" s="227"/>
-      <c r="P25" s="273"/>
-      <c r="Q25" s="227"/>
+      <c r="D25" s="267"/>
+      <c r="E25" s="259"/>
+      <c r="F25" s="259"/>
+      <c r="G25" s="259"/>
+      <c r="H25" s="259"/>
+      <c r="I25" s="260"/>
+      <c r="J25" s="283"/>
+      <c r="K25" s="260"/>
+      <c r="L25" s="284"/>
+      <c r="M25" s="260"/>
+      <c r="N25" s="285"/>
+      <c r="O25" s="260"/>
+      <c r="P25" s="286"/>
+      <c r="Q25" s="260"/>
       <c r="R25" s="53"/>
     </row>
     <row r="26" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="49"/>
       <c r="B26" s="101"/>
       <c r="C26" s="86"/>
-      <c r="D26" s="269"/>
-      <c r="E26" s="226"/>
-      <c r="F26" s="226"/>
-      <c r="G26" s="226"/>
-      <c r="H26" s="226"/>
-      <c r="I26" s="227"/>
+      <c r="D26" s="267"/>
+      <c r="E26" s="259"/>
+      <c r="F26" s="259"/>
+      <c r="G26" s="259"/>
+      <c r="H26" s="259"/>
+      <c r="I26" s="260"/>
       <c r="J26" s="102"/>
       <c r="K26" s="102"/>
       <c r="L26" s="82"/>
@@ -65458,12 +65458,12 @@
       <c r="A27" s="49"/>
       <c r="B27" s="101"/>
       <c r="C27" s="86"/>
-      <c r="D27" s="269"/>
-      <c r="E27" s="226"/>
-      <c r="F27" s="226"/>
-      <c r="G27" s="226"/>
-      <c r="H27" s="226"/>
-      <c r="I27" s="227"/>
+      <c r="D27" s="267"/>
+      <c r="E27" s="259"/>
+      <c r="F27" s="259"/>
+      <c r="G27" s="259"/>
+      <c r="H27" s="259"/>
+      <c r="I27" s="260"/>
       <c r="J27" s="102"/>
       <c r="K27" s="102"/>
       <c r="L27" s="82"/>
@@ -65478,12 +65478,12 @@
       <c r="A28" s="49"/>
       <c r="B28" s="101"/>
       <c r="C28" s="86"/>
-      <c r="D28" s="270"/>
-      <c r="E28" s="226"/>
-      <c r="F28" s="226"/>
-      <c r="G28" s="226"/>
-      <c r="H28" s="226"/>
-      <c r="I28" s="227"/>
+      <c r="D28" s="287"/>
+      <c r="E28" s="259"/>
+      <c r="F28" s="259"/>
+      <c r="G28" s="259"/>
+      <c r="H28" s="259"/>
+      <c r="I28" s="260"/>
       <c r="J28" s="102"/>
       <c r="K28" s="102"/>
       <c r="L28" s="82"/>
@@ -65498,12 +65498,12 @@
       <c r="A29" s="49"/>
       <c r="B29" s="101"/>
       <c r="C29" s="86"/>
-      <c r="D29" s="270"/>
-      <c r="E29" s="226"/>
-      <c r="F29" s="226"/>
-      <c r="G29" s="226"/>
-      <c r="H29" s="226"/>
-      <c r="I29" s="227"/>
+      <c r="D29" s="287"/>
+      <c r="E29" s="259"/>
+      <c r="F29" s="259"/>
+      <c r="G29" s="259"/>
+      <c r="H29" s="259"/>
+      <c r="I29" s="260"/>
       <c r="J29" s="105"/>
       <c r="K29" s="105"/>
       <c r="L29" s="82"/>
@@ -65518,12 +65518,12 @@
       <c r="A30" s="49"/>
       <c r="B30" s="101"/>
       <c r="C30" s="86"/>
-      <c r="D30" s="248"/>
-      <c r="E30" s="226"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="226"/>
-      <c r="H30" s="226"/>
-      <c r="I30" s="227"/>
+      <c r="D30" s="288"/>
+      <c r="E30" s="259"/>
+      <c r="F30" s="259"/>
+      <c r="G30" s="259"/>
+      <c r="H30" s="259"/>
+      <c r="I30" s="260"/>
       <c r="J30" s="102"/>
       <c r="K30" s="102"/>
       <c r="L30" s="82"/>
@@ -65538,12 +65538,12 @@
       <c r="A31" s="49"/>
       <c r="B31" s="101"/>
       <c r="C31" s="86"/>
-      <c r="D31" s="248"/>
-      <c r="E31" s="226"/>
-      <c r="F31" s="226"/>
-      <c r="G31" s="226"/>
-      <c r="H31" s="226"/>
-      <c r="I31" s="227"/>
+      <c r="D31" s="288"/>
+      <c r="E31" s="259"/>
+      <c r="F31" s="259"/>
+      <c r="G31" s="259"/>
+      <c r="H31" s="259"/>
+      <c r="I31" s="260"/>
       <c r="J31" s="102"/>
       <c r="K31" s="102"/>
       <c r="L31" s="82"/>
@@ -65558,12 +65558,12 @@
       <c r="A32" s="49"/>
       <c r="B32" s="101"/>
       <c r="C32" s="86"/>
-      <c r="D32" s="248"/>
-      <c r="E32" s="226"/>
-      <c r="F32" s="226"/>
-      <c r="G32" s="226"/>
-      <c r="H32" s="226"/>
-      <c r="I32" s="227"/>
+      <c r="D32" s="288"/>
+      <c r="E32" s="259"/>
+      <c r="F32" s="259"/>
+      <c r="G32" s="259"/>
+      <c r="H32" s="259"/>
+      <c r="I32" s="260"/>
       <c r="J32" s="102"/>
       <c r="K32" s="102"/>
       <c r="L32" s="82"/>
@@ -65578,12 +65578,12 @@
       <c r="A33" s="49"/>
       <c r="B33" s="101"/>
       <c r="C33" s="86"/>
-      <c r="D33" s="248"/>
-      <c r="E33" s="226"/>
-      <c r="F33" s="226"/>
-      <c r="G33" s="226"/>
-      <c r="H33" s="226"/>
-      <c r="I33" s="227"/>
+      <c r="D33" s="288"/>
+      <c r="E33" s="259"/>
+      <c r="F33" s="259"/>
+      <c r="G33" s="259"/>
+      <c r="H33" s="259"/>
+      <c r="I33" s="260"/>
       <c r="J33" s="102"/>
       <c r="K33" s="102"/>
       <c r="L33" s="82"/>
@@ -65598,12 +65598,12 @@
       <c r="A34" s="49"/>
       <c r="B34" s="101"/>
       <c r="C34" s="86"/>
-      <c r="D34" s="249"/>
-      <c r="E34" s="226"/>
-      <c r="F34" s="226"/>
-      <c r="G34" s="226"/>
-      <c r="H34" s="226"/>
-      <c r="I34" s="227"/>
+      <c r="D34" s="317"/>
+      <c r="E34" s="259"/>
+      <c r="F34" s="259"/>
+      <c r="G34" s="259"/>
+      <c r="H34" s="259"/>
+      <c r="I34" s="260"/>
       <c r="J34" s="102"/>
       <c r="K34" s="102"/>
       <c r="L34" s="82"/>
@@ -65618,12 +65618,12 @@
       <c r="A35" s="49"/>
       <c r="B35" s="106"/>
       <c r="C35" s="107"/>
-      <c r="D35" s="249"/>
-      <c r="E35" s="226"/>
-      <c r="F35" s="226"/>
-      <c r="G35" s="226"/>
-      <c r="H35" s="226"/>
-      <c r="I35" s="227"/>
+      <c r="D35" s="317"/>
+      <c r="E35" s="259"/>
+      <c r="F35" s="259"/>
+      <c r="G35" s="259"/>
+      <c r="H35" s="259"/>
+      <c r="I35" s="260"/>
       <c r="J35" s="86"/>
       <c r="K35" s="86"/>
       <c r="L35" s="82"/>
@@ -65648,10 +65648,10 @@
       <c r="K36" s="109"/>
       <c r="L36" s="111"/>
       <c r="M36" s="111"/>
-      <c r="N36" s="250"/>
-      <c r="O36" s="218"/>
-      <c r="P36" s="251"/>
-      <c r="Q36" s="221"/>
+      <c r="N36" s="318"/>
+      <c r="O36" s="254"/>
+      <c r="P36" s="311"/>
+      <c r="Q36" s="312"/>
       <c r="R36" s="53"/>
     </row>
     <row r="37" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -65660,53 +65660,53 @@
       <c r="C37" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="252" t="s">
+      <c r="D37" s="313" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="253"/>
-      <c r="F37" s="253"/>
-      <c r="G37" s="253"/>
-      <c r="H37" s="253"/>
-      <c r="I37" s="254"/>
-      <c r="J37" s="261" t="s">
+      <c r="E37" s="273"/>
+      <c r="F37" s="273"/>
+      <c r="G37" s="273"/>
+      <c r="H37" s="273"/>
+      <c r="I37" s="292"/>
+      <c r="J37" s="289" t="s">
         <v>51</v>
       </c>
-      <c r="K37" s="262"/>
-      <c r="L37" s="263" t="s">
+      <c r="K37" s="290"/>
+      <c r="L37" s="291" t="s">
         <v>52</v>
       </c>
-      <c r="M37" s="254"/>
-      <c r="N37" s="245" t="s">
+      <c r="M37" s="292"/>
+      <c r="N37" s="321" t="s">
         <v>53</v>
       </c>
-      <c r="O37" s="246"/>
-      <c r="P37" s="247" t="s">
+      <c r="O37" s="322"/>
+      <c r="P37" s="323" t="s">
         <v>54</v>
       </c>
-      <c r="Q37" s="246"/>
+      <c r="Q37" s="322"/>
       <c r="R37" s="53"/>
     </row>
     <row r="38" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="49"/>
       <c r="B38" s="113"/>
       <c r="C38" s="114"/>
-      <c r="D38" s="224"/>
-      <c r="E38" s="217"/>
-      <c r="F38" s="217"/>
-      <c r="G38" s="217"/>
-      <c r="H38" s="217"/>
-      <c r="I38" s="233"/>
+      <c r="D38" s="293"/>
+      <c r="E38" s="253"/>
+      <c r="F38" s="253"/>
+      <c r="G38" s="253"/>
+      <c r="H38" s="253"/>
+      <c r="I38" s="296"/>
       <c r="J38" s="115"/>
       <c r="K38" s="116"/>
       <c r="L38" s="117"/>
-      <c r="M38" s="327"/>
-      <c r="N38" s="329"/>
-      <c r="O38" s="330"/>
-      <c r="P38" s="331" t="str">
+      <c r="M38" s="159"/>
+      <c r="N38" s="160"/>
+      <c r="O38" s="161"/>
+      <c r="P38" s="162" t="str">
         <f t="shared" ref="P38:Q38" si="0">IF(N38&lt;&gt;"",N38*O38,"")</f>
         <v/>
       </c>
-      <c r="Q38" s="332" t="str">
+      <c r="Q38" s="163" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -65716,18 +65716,18 @@
       <c r="A39" s="49"/>
       <c r="B39" s="119"/>
       <c r="C39" s="114"/>
-      <c r="D39" s="224"/>
-      <c r="E39" s="217"/>
-      <c r="F39" s="217"/>
-      <c r="G39" s="217"/>
-      <c r="H39" s="217"/>
-      <c r="I39" s="233"/>
+      <c r="D39" s="293"/>
+      <c r="E39" s="253"/>
+      <c r="F39" s="253"/>
+      <c r="G39" s="253"/>
+      <c r="H39" s="253"/>
+      <c r="I39" s="296"/>
       <c r="J39" s="115"/>
       <c r="K39" s="116"/>
       <c r="L39" s="120"/>
-      <c r="M39" s="327"/>
-      <c r="N39" s="321"/>
-      <c r="O39" s="323"/>
+      <c r="M39" s="159"/>
+      <c r="N39" s="155"/>
+      <c r="O39" s="156"/>
       <c r="P39" s="121" t="str">
         <f t="shared" ref="P39:Q39" si="1">IF(N39&lt;&gt;"",N39*O39,"")</f>
         <v/>
@@ -65744,29 +65744,29 @@
       <c r="C40" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="240" t="s">
+      <c r="D40" s="297" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="217"/>
-      <c r="F40" s="217"/>
-      <c r="G40" s="217"/>
-      <c r="H40" s="217"/>
-      <c r="I40" s="233"/>
-      <c r="J40" s="265" t="s">
+      <c r="E40" s="253"/>
+      <c r="F40" s="253"/>
+      <c r="G40" s="253"/>
+      <c r="H40" s="253"/>
+      <c r="I40" s="296"/>
+      <c r="J40" s="298" t="s">
         <v>57</v>
       </c>
-      <c r="K40" s="244"/>
-      <c r="L40" s="266">
+      <c r="K40" s="299"/>
+      <c r="L40" s="300">
         <v>1</v>
       </c>
-      <c r="M40" s="328"/>
-      <c r="N40" s="322"/>
-      <c r="O40" s="324"/>
-      <c r="P40" s="322">
+      <c r="M40" s="301"/>
+      <c r="N40" s="319"/>
+      <c r="O40" s="328"/>
+      <c r="P40" s="319">
         <f>N40</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="233"/>
+      <c r="Q40" s="296"/>
       <c r="R40" s="53"/>
     </row>
     <row r="41" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -65775,18 +65775,18 @@
         <v>1</v>
       </c>
       <c r="C41" s="123"/>
-      <c r="D41" s="240"/>
-      <c r="E41" s="217"/>
-      <c r="F41" s="217"/>
-      <c r="G41" s="217"/>
-      <c r="H41" s="217"/>
-      <c r="I41" s="233"/>
+      <c r="D41" s="297"/>
+      <c r="E41" s="253"/>
+      <c r="F41" s="253"/>
+      <c r="G41" s="253"/>
+      <c r="H41" s="253"/>
+      <c r="I41" s="296"/>
       <c r="J41" s="115"/>
       <c r="K41" s="116"/>
       <c r="L41" s="117"/>
-      <c r="M41" s="327"/>
+      <c r="M41" s="159"/>
       <c r="N41" s="118"/>
-      <c r="O41" s="323"/>
+      <c r="O41" s="156"/>
       <c r="P41" s="121"/>
       <c r="Q41" s="122"/>
       <c r="R41" s="53"/>
@@ -65798,17 +65798,17 @@
       <c r="D42" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="241"/>
-      <c r="F42" s="217"/>
-      <c r="G42" s="217"/>
-      <c r="H42" s="217"/>
-      <c r="I42" s="233"/>
+      <c r="E42" s="320"/>
+      <c r="F42" s="253"/>
+      <c r="G42" s="253"/>
+      <c r="H42" s="253"/>
+      <c r="I42" s="296"/>
       <c r="J42" s="115"/>
       <c r="K42" s="116"/>
       <c r="L42" s="117"/>
-      <c r="M42" s="327"/>
+      <c r="M42" s="159"/>
       <c r="N42" s="118"/>
-      <c r="O42" s="323"/>
+      <c r="O42" s="156"/>
       <c r="P42" s="121" t="str">
         <f t="shared" ref="P42:Q42" si="2">IF(N42&lt;&gt;"",N42*O42,"")</f>
         <v/>
@@ -65823,18 +65823,18 @@
       <c r="A43" s="49"/>
       <c r="B43" s="124"/>
       <c r="C43" s="123"/>
-      <c r="D43" s="242"/>
-      <c r="E43" s="243"/>
-      <c r="F43" s="243"/>
-      <c r="G43" s="243"/>
-      <c r="H43" s="243"/>
-      <c r="I43" s="244"/>
+      <c r="D43" s="302"/>
+      <c r="E43" s="276"/>
+      <c r="F43" s="276"/>
+      <c r="G43" s="276"/>
+      <c r="H43" s="276"/>
+      <c r="I43" s="299"/>
       <c r="J43" s="115"/>
       <c r="K43" s="116"/>
       <c r="L43" s="117"/>
-      <c r="M43" s="327"/>
+      <c r="M43" s="159"/>
       <c r="N43" s="118"/>
-      <c r="O43" s="323"/>
+      <c r="O43" s="156"/>
       <c r="P43" s="121" t="str">
         <f t="shared" ref="P43:Q43" si="3">IF(N43&lt;&gt;"",N43*O43,"")</f>
         <v/>
@@ -65849,18 +65849,18 @@
       <c r="A44" s="49"/>
       <c r="B44" s="124"/>
       <c r="C44" s="123"/>
-      <c r="D44" s="242"/>
-      <c r="E44" s="243"/>
-      <c r="F44" s="243"/>
-      <c r="G44" s="243"/>
-      <c r="H44" s="243"/>
-      <c r="I44" s="244"/>
+      <c r="D44" s="302"/>
+      <c r="E44" s="276"/>
+      <c r="F44" s="276"/>
+      <c r="G44" s="276"/>
+      <c r="H44" s="276"/>
+      <c r="I44" s="299"/>
       <c r="J44" s="126"/>
       <c r="K44" s="127"/>
       <c r="L44" s="117"/>
-      <c r="M44" s="327"/>
+      <c r="M44" s="159"/>
       <c r="N44" s="118"/>
-      <c r="O44" s="323"/>
+      <c r="O44" s="156"/>
       <c r="P44" s="121" t="str">
         <f t="shared" ref="P44:Q44" si="4">IF(N44&lt;&gt;"",N44*O44,"")</f>
         <v/>
@@ -65875,18 +65875,18 @@
       <c r="A45" s="49"/>
       <c r="B45" s="59"/>
       <c r="C45" s="123"/>
-      <c r="D45" s="232"/>
-      <c r="E45" s="217"/>
-      <c r="F45" s="217"/>
-      <c r="G45" s="217"/>
-      <c r="H45" s="217"/>
-      <c r="I45" s="233"/>
+      <c r="D45" s="303"/>
+      <c r="E45" s="253"/>
+      <c r="F45" s="253"/>
+      <c r="G45" s="253"/>
+      <c r="H45" s="253"/>
+      <c r="I45" s="296"/>
       <c r="J45" s="115"/>
       <c r="K45" s="116"/>
       <c r="L45" s="117"/>
-      <c r="M45" s="327"/>
+      <c r="M45" s="159"/>
       <c r="N45" s="118"/>
-      <c r="O45" s="323"/>
+      <c r="O45" s="156"/>
       <c r="P45" s="121" t="str">
         <f t="shared" ref="P45:Q45" si="5">IF(N45&lt;&gt;"",N45*O45,"")</f>
         <v/>
@@ -65901,18 +65901,18 @@
       <c r="A46" s="49"/>
       <c r="B46" s="59"/>
       <c r="C46" s="123"/>
-      <c r="D46" s="267"/>
-      <c r="E46" s="217"/>
-      <c r="F46" s="217"/>
-      <c r="G46" s="217"/>
-      <c r="H46" s="217"/>
-      <c r="I46" s="233"/>
+      <c r="D46" s="304"/>
+      <c r="E46" s="253"/>
+      <c r="F46" s="253"/>
+      <c r="G46" s="253"/>
+      <c r="H46" s="253"/>
+      <c r="I46" s="296"/>
       <c r="J46" s="115"/>
       <c r="K46" s="116"/>
       <c r="L46" s="117"/>
-      <c r="M46" s="327"/>
+      <c r="M46" s="159"/>
       <c r="N46" s="118"/>
-      <c r="O46" s="323"/>
+      <c r="O46" s="156"/>
       <c r="P46" s="121"/>
       <c r="Q46" s="122"/>
       <c r="R46" s="53"/>
@@ -65921,18 +65921,18 @@
       <c r="A47" s="49"/>
       <c r="B47" s="59"/>
       <c r="C47" s="123"/>
-      <c r="D47" s="267"/>
-      <c r="E47" s="217"/>
-      <c r="F47" s="217"/>
-      <c r="G47" s="217"/>
-      <c r="H47" s="217"/>
-      <c r="I47" s="233"/>
+      <c r="D47" s="304"/>
+      <c r="E47" s="253"/>
+      <c r="F47" s="253"/>
+      <c r="G47" s="253"/>
+      <c r="H47" s="253"/>
+      <c r="I47" s="296"/>
       <c r="J47" s="115"/>
       <c r="K47" s="116"/>
       <c r="L47" s="117"/>
-      <c r="M47" s="327"/>
+      <c r="M47" s="159"/>
       <c r="N47" s="118"/>
-      <c r="O47" s="325"/>
+      <c r="O47" s="157"/>
       <c r="P47" s="121" t="str">
         <f t="shared" ref="P47:Q47" si="6">IF(N47&lt;&gt;"",N47*O47,"")</f>
         <v/>
@@ -65947,18 +65947,18 @@
       <c r="A48" s="49"/>
       <c r="B48" s="64"/>
       <c r="C48" s="123"/>
-      <c r="D48" s="232"/>
-      <c r="E48" s="217"/>
-      <c r="F48" s="217"/>
-      <c r="G48" s="217"/>
-      <c r="H48" s="217"/>
-      <c r="I48" s="233"/>
+      <c r="D48" s="303"/>
+      <c r="E48" s="253"/>
+      <c r="F48" s="253"/>
+      <c r="G48" s="253"/>
+      <c r="H48" s="253"/>
+      <c r="I48" s="296"/>
       <c r="J48" s="115"/>
       <c r="K48" s="116"/>
       <c r="L48" s="117"/>
-      <c r="M48" s="327"/>
+      <c r="M48" s="159"/>
       <c r="N48" s="118"/>
-      <c r="O48" s="325"/>
+      <c r="O48" s="157"/>
       <c r="P48" s="121"/>
       <c r="Q48" s="122"/>
       <c r="R48" s="53"/>
@@ -65967,18 +65967,18 @@
       <c r="A49" s="49"/>
       <c r="B49" s="49"/>
       <c r="C49" s="123"/>
-      <c r="D49" s="234"/>
-      <c r="E49" s="235"/>
-      <c r="F49" s="235"/>
-      <c r="G49" s="235"/>
-      <c r="H49" s="235"/>
-      <c r="I49" s="236"/>
+      <c r="D49" s="324"/>
+      <c r="E49" s="315"/>
+      <c r="F49" s="315"/>
+      <c r="G49" s="315"/>
+      <c r="H49" s="315"/>
+      <c r="I49" s="325"/>
       <c r="J49" s="115"/>
       <c r="K49" s="116"/>
       <c r="L49" s="117"/>
-      <c r="M49" s="327"/>
+      <c r="M49" s="159"/>
       <c r="N49" s="118"/>
-      <c r="O49" s="325"/>
+      <c r="O49" s="157"/>
       <c r="P49" s="121"/>
       <c r="Q49" s="122"/>
       <c r="R49" s="53"/>
@@ -65987,18 +65987,18 @@
       <c r="A50" s="49"/>
       <c r="B50" s="128"/>
       <c r="C50" s="129"/>
-      <c r="D50" s="237"/>
-      <c r="E50" s="238"/>
-      <c r="F50" s="238"/>
-      <c r="G50" s="238"/>
-      <c r="H50" s="238"/>
-      <c r="I50" s="239"/>
+      <c r="D50" s="309"/>
+      <c r="E50" s="306"/>
+      <c r="F50" s="306"/>
+      <c r="G50" s="306"/>
+      <c r="H50" s="306"/>
+      <c r="I50" s="326"/>
       <c r="J50" s="130"/>
       <c r="K50" s="131"/>
       <c r="L50" s="117"/>
-      <c r="M50" s="327"/>
+      <c r="M50" s="159"/>
       <c r="N50" s="118"/>
-      <c r="O50" s="326"/>
+      <c r="O50" s="158"/>
       <c r="P50" s="132"/>
       <c r="Q50" s="133"/>
       <c r="R50" s="53"/>
@@ -66017,15 +66017,15 @@
       <c r="K51" s="136"/>
       <c r="L51" s="136"/>
       <c r="M51" s="136"/>
-      <c r="N51" s="228" t="s">
+      <c r="N51" s="327" t="s">
         <v>58</v>
       </c>
-      <c r="O51" s="229"/>
-      <c r="P51" s="220">
+      <c r="O51" s="295"/>
+      <c r="P51" s="330">
         <f>P40</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="221"/>
+      <c r="Q51" s="312"/>
       <c r="R51" s="53"/>
     </row>
     <row r="52" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -66042,21 +66042,21 @@
       <c r="K52" s="136"/>
       <c r="L52" s="136"/>
       <c r="M52" s="136"/>
-      <c r="N52" s="228" t="s">
+      <c r="N52" s="327" t="s">
         <v>59</v>
       </c>
-      <c r="O52" s="229"/>
-      <c r="P52" s="220"/>
-      <c r="Q52" s="221"/>
+      <c r="O52" s="295"/>
+      <c r="P52" s="330"/>
+      <c r="Q52" s="312"/>
       <c r="R52" s="53"/>
     </row>
     <row r="53" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A53" s="49"/>
       <c r="B53" s="109"/>
-      <c r="C53" s="224"/>
-      <c r="D53" s="217"/>
-      <c r="E53" s="217"/>
-      <c r="F53" s="218"/>
+      <c r="C53" s="293"/>
+      <c r="D53" s="253"/>
+      <c r="E53" s="253"/>
+      <c r="F53" s="254"/>
       <c r="G53" s="136"/>
       <c r="H53" s="137"/>
       <c r="I53" s="90"/>
@@ -66064,12 +66064,12 @@
       <c r="K53" s="90"/>
       <c r="L53" s="90"/>
       <c r="M53" s="90"/>
-      <c r="N53" s="230" t="s">
+      <c r="N53" s="284" t="s">
         <v>60</v>
       </c>
-      <c r="O53" s="231"/>
-      <c r="P53" s="222"/>
-      <c r="Q53" s="223"/>
+      <c r="O53" s="333"/>
+      <c r="P53" s="331"/>
+      <c r="Q53" s="271"/>
       <c r="R53" s="53"/>
     </row>
     <row r="54" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
@@ -66080,10 +66080,10 @@
       <c r="E54" s="136"/>
       <c r="F54" s="136"/>
       <c r="G54" s="117"/>
-      <c r="H54" s="225"/>
-      <c r="I54" s="226"/>
-      <c r="J54" s="226"/>
-      <c r="K54" s="227"/>
+      <c r="H54" s="332"/>
+      <c r="I54" s="259"/>
+      <c r="J54" s="259"/>
+      <c r="K54" s="260"/>
       <c r="L54" s="92"/>
       <c r="M54" s="53"/>
       <c r="N54" s="53"/>
@@ -66135,10 +66135,10 @@
     <row r="57" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A57" s="53"/>
       <c r="B57" s="53"/>
-      <c r="C57" s="268"/>
-      <c r="D57" s="238"/>
-      <c r="E57" s="238"/>
-      <c r="F57" s="259"/>
+      <c r="C57" s="305"/>
+      <c r="D57" s="306"/>
+      <c r="E57" s="306"/>
+      <c r="F57" s="256"/>
       <c r="G57" s="53"/>
       <c r="H57" s="53"/>
       <c r="I57" s="53"/>
@@ -66155,10 +66155,10 @@
     <row r="58" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A58" s="138"/>
       <c r="B58" s="138"/>
-      <c r="C58" s="216"/>
-      <c r="D58" s="217"/>
-      <c r="E58" s="217"/>
-      <c r="F58" s="218"/>
+      <c r="C58" s="308"/>
+      <c r="D58" s="253"/>
+      <c r="E58" s="253"/>
+      <c r="F58" s="254"/>
       <c r="G58" s="138"/>
       <c r="H58" s="138"/>
       <c r="I58" s="138"/>
@@ -66175,10 +66175,10 @@
     <row r="59" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A59" s="138"/>
       <c r="B59" s="138"/>
-      <c r="C59" s="219"/>
-      <c r="D59" s="217"/>
-      <c r="E59" s="217"/>
-      <c r="F59" s="218"/>
+      <c r="C59" s="329"/>
+      <c r="D59" s="253"/>
+      <c r="E59" s="253"/>
+      <c r="F59" s="254"/>
       <c r="G59" s="138"/>
       <c r="H59" s="138"/>
       <c r="I59" s="138"/>
@@ -66195,10 +66195,10 @@
     <row r="60" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="138"/>
       <c r="B60" s="138"/>
-      <c r="C60" s="219"/>
-      <c r="D60" s="217"/>
-      <c r="E60" s="217"/>
-      <c r="F60" s="218"/>
+      <c r="C60" s="329"/>
+      <c r="D60" s="253"/>
+      <c r="E60" s="253"/>
+      <c r="F60" s="254"/>
       <c r="G60" s="138"/>
       <c r="H60" s="138"/>
       <c r="I60" s="138"/>
@@ -66215,10 +66215,10 @@
     <row r="61" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A61" s="138"/>
       <c r="B61" s="138"/>
-      <c r="C61" s="219"/>
-      <c r="D61" s="217"/>
-      <c r="E61" s="217"/>
-      <c r="F61" s="218"/>
+      <c r="C61" s="329"/>
+      <c r="D61" s="253"/>
+      <c r="E61" s="253"/>
+      <c r="F61" s="254"/>
       <c r="G61" s="138"/>
       <c r="H61" s="138"/>
       <c r="I61" s="138"/>
@@ -66235,10 +66235,10 @@
     <row r="62" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A62" s="138"/>
       <c r="B62" s="138"/>
-      <c r="C62" s="216"/>
-      <c r="D62" s="217"/>
-      <c r="E62" s="217"/>
-      <c r="F62" s="218"/>
+      <c r="C62" s="308"/>
+      <c r="D62" s="253"/>
+      <c r="E62" s="253"/>
+      <c r="F62" s="254"/>
       <c r="G62" s="138"/>
       <c r="H62" s="138"/>
       <c r="I62" s="138"/>
@@ -66255,8 +66255,8 @@
     <row r="63" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A63" s="138"/>
       <c r="B63" s="138"/>
-      <c r="C63" s="216"/>
-      <c r="D63" s="217"/>
+      <c r="C63" s="308"/>
+      <c r="D63" s="253"/>
       <c r="E63" s="84"/>
       <c r="F63" s="109"/>
       <c r="G63" s="138"/>
@@ -66334,12 +66334,12 @@
     </row>
     <row r="67" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A67" s="138"/>
-      <c r="B67" s="237" t="s">
+      <c r="B67" s="309" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="238"/>
-      <c r="D67" s="238"/>
-      <c r="E67" s="259"/>
+      <c r="C67" s="306"/>
+      <c r="D67" s="306"/>
+      <c r="E67" s="256"/>
       <c r="F67" s="140"/>
       <c r="G67" s="138"/>
       <c r="H67" s="138"/>
@@ -66356,12 +66356,12 @@
     </row>
     <row r="68" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A68" s="138"/>
-      <c r="B68" s="224" t="s">
+      <c r="B68" s="293" t="s">
         <v>62</v>
       </c>
-      <c r="C68" s="217"/>
-      <c r="D68" s="217"/>
-      <c r="E68" s="218"/>
+      <c r="C68" s="253"/>
+      <c r="D68" s="253"/>
+      <c r="E68" s="254"/>
       <c r="F68" s="140"/>
       <c r="G68" s="138"/>
       <c r="H68" s="138"/>
@@ -66378,12 +66378,12 @@
     </row>
     <row r="69" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A69" s="138"/>
-      <c r="B69" s="260" t="s">
+      <c r="B69" s="310" t="s">
         <v>63</v>
       </c>
-      <c r="C69" s="217"/>
-      <c r="D69" s="217"/>
-      <c r="E69" s="218"/>
+      <c r="C69" s="253"/>
+      <c r="D69" s="253"/>
+      <c r="E69" s="254"/>
       <c r="F69" s="140"/>
       <c r="G69" s="138"/>
       <c r="H69" s="138"/>
@@ -66400,12 +66400,12 @@
     </row>
     <row r="70" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A70" s="138"/>
-      <c r="B70" s="260" t="s">
+      <c r="B70" s="310" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="217"/>
-      <c r="D70" s="217"/>
-      <c r="E70" s="218"/>
+      <c r="C70" s="253"/>
+      <c r="D70" s="253"/>
+      <c r="E70" s="254"/>
       <c r="F70" s="140"/>
       <c r="G70" s="138"/>
       <c r="H70" s="138"/>
@@ -66422,12 +66422,12 @@
     </row>
     <row r="71" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A71" s="138"/>
-      <c r="B71" s="260" t="s">
+      <c r="B71" s="310" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="217"/>
-      <c r="D71" s="217"/>
-      <c r="E71" s="218"/>
+      <c r="C71" s="253"/>
+      <c r="D71" s="253"/>
+      <c r="E71" s="254"/>
       <c r="F71" s="140"/>
       <c r="G71" s="138"/>
       <c r="H71" s="138"/>
@@ -66444,12 +66444,12 @@
     </row>
     <row r="72" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A72" s="138"/>
-      <c r="B72" s="224" t="s">
+      <c r="B72" s="293" t="s">
         <v>66</v>
       </c>
-      <c r="C72" s="217"/>
-      <c r="D72" s="217"/>
-      <c r="E72" s="218"/>
+      <c r="C72" s="253"/>
+      <c r="D72" s="253"/>
+      <c r="E72" s="254"/>
       <c r="F72" s="140"/>
       <c r="G72" s="138"/>
       <c r="H72" s="138"/>
@@ -66466,12 +66466,12 @@
     </row>
     <row r="73" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A73" s="138"/>
-      <c r="B73" s="224" t="s">
+      <c r="B73" s="293" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="217"/>
-      <c r="D73" s="264"/>
-      <c r="E73" s="229"/>
+      <c r="C73" s="253"/>
+      <c r="D73" s="294"/>
+      <c r="E73" s="295"/>
       <c r="F73" s="138"/>
       <c r="G73" s="138"/>
       <c r="H73" s="138"/>
@@ -66651,10 +66651,10 @@
       <c r="B82" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="C82" s="255"/>
-      <c r="D82" s="235"/>
-      <c r="E82" s="235"/>
-      <c r="F82" s="229"/>
+      <c r="C82" s="314"/>
+      <c r="D82" s="315"/>
+      <c r="E82" s="315"/>
+      <c r="F82" s="295"/>
       <c r="G82" s="143"/>
       <c r="H82" s="144"/>
       <c r="I82" s="144"/>
@@ -66670,11 +66670,11 @@
     </row>
     <row r="83" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A83" s="138"/>
-      <c r="B83" s="256"/>
-      <c r="C83" s="217"/>
-      <c r="D83" s="217"/>
-      <c r="E83" s="217"/>
-      <c r="F83" s="218"/>
+      <c r="B83" s="316"/>
+      <c r="C83" s="253"/>
+      <c r="D83" s="253"/>
+      <c r="E83" s="253"/>
+      <c r="F83" s="254"/>
       <c r="G83" s="117"/>
       <c r="H83" s="115"/>
       <c r="I83" s="115"/>
@@ -66693,10 +66693,10 @@
       <c r="B84" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="C84" s="224"/>
-      <c r="D84" s="217"/>
-      <c r="E84" s="217"/>
-      <c r="F84" s="218"/>
+      <c r="C84" s="293"/>
+      <c r="D84" s="253"/>
+      <c r="E84" s="253"/>
+      <c r="F84" s="254"/>
       <c r="G84" s="117"/>
       <c r="H84" s="115"/>
       <c r="I84" s="115"/>
@@ -66715,10 +66715,10 @@
       <c r="B85" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="C85" s="257"/>
-      <c r="D85" s="160"/>
-      <c r="E85" s="160"/>
-      <c r="F85" s="258"/>
+      <c r="C85" s="307"/>
+      <c r="D85" s="174"/>
+      <c r="E85" s="174"/>
+      <c r="F85" s="265"/>
       <c r="G85" s="120"/>
       <c r="H85" s="115"/>
       <c r="I85" s="115"/>
@@ -66756,47 +66756,46 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="D49:I49"/>
+    <mergeCell ref="D50:I50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B71:E71"/>
     <mergeCell ref="D31:I31"/>
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="L37:M37"/>
@@ -66813,46 +66812,47 @@
     <mergeCell ref="D46:I46"/>
     <mergeCell ref="D47:I47"/>
     <mergeCell ref="C57:F57"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="D48:I48"/>
-    <mergeCell ref="D49:I49"/>
-    <mergeCell ref="D50:I50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="B4:I4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
